--- a/01/After_Soc_EEH2.xlsx
+++ b/01/After_Soc_EEH2.xlsx
@@ -7,6 +7,9 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Energy" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Entropy" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hurst" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -14,19 +17,89 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
+  <si>
+    <t>ГО</t>
+  </si>
+  <si>
+    <t>ГЗ</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Гуров Алексей</t>
+  </si>
+  <si>
+    <t>Калмыкова Светлана</t>
+  </si>
+  <si>
+    <t>Акулов Дмитрий</t>
+  </si>
+  <si>
+    <t>Гаврильчик Богдан</t>
+  </si>
+  <si>
+    <t>Котова Маргарита</t>
+  </si>
+  <si>
+    <t>Прокопов Иван</t>
+  </si>
+  <si>
+    <t>Дубенко Антон</t>
+  </si>
+  <si>
+    <t>Тукина Юлия</t>
+  </si>
+  <si>
+    <t>Федотов Никита</t>
+  </si>
+  <si>
+    <t>Кравец Мария</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +110,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,12 +118,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -358,4 +441,4186 @@
   <sheetData/>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:AP11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:42">
+      <c r="B1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" t="s">
+        <v>8</v>
+      </c>
+      <c r="S1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U1" t="s">
+        <v>10</v>
+      </c>
+      <c r="V1" t="s">
+        <v>10</v>
+      </c>
+      <c r="W1" t="s">
+        <v>11</v>
+      </c>
+      <c r="X1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:42">
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.1672562726161239</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9980198316900639</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2.051119778928536</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.160551723474533</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.5270156979640955</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.6293220069806497</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.1984301033558755</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.1309209049518843</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.06639895843832612</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.07842555932822261</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.5041499095217936</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.09506080326868104</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.06820705246157119</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.468195234223071</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.6311685802459273</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.5483443218280423</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.2141432953237549</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.09810556427076877</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.6044140307941926</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.6939415557583473</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.6628574347725118</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1.328792065419794</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>1.265804017145456</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.8456149249193394</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.8002154608125187</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.2178405533815677</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.2586213008095939</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.9064679271405391</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.7621188035558897</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.2879216678649672</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.4807664471373789</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0.9067690869158651</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.4815840953153714</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.1453331232601929</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0.6249078620714918</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0.8659883457139249</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0.1424878955612494</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0.2520875097383253</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0.2846069588928665</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0.4550137296005165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42">
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.06747150449005082</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.027181706843916</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4.938912287359948</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.1453733236592682</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.1533825614402226</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.1672196589853345</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.1779484049812056</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.2759464360714863</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.341691333326616</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.1365025273501193</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.346139125101212</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.4190136007195367</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.1698991002010636</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.1551235764268288</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.726488336846417</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.815295879672904</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.03144494954166</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.70884981936554</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.958090911835711</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.577768144674877</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1.65494005603229</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1.963242144457614</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>3.208757215897345</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>3.765410468733632</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1.657824109273062</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>3.219766852528053</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.7488702508189633</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.8993413409132289</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.6787787995000915</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.1494344147726369</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.114957572158609</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.1742032096084464</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.0515462427239596</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0.0798840045279007</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0.4626529337395699</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0.9601121181564251</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.7338996439519134</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0.504267298885725</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.5014304855465306</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0.340357388375321</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42">
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.09533013008340506</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.216988366487895</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2.948979177229986</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.1567259911255481</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.1780823949961332</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.2076159785140428</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.07233200627016323</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.4440666479783462</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.6186861283289934</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.2688609207837492</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.3249690248045128</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.2363551092898811</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.2248788723165986</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.2830900111220371</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.1794696698462636</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.7993560895610443</v>
+      </c>
+      <c r="S4" t="n">
+        <v>2.710356466254374</v>
+      </c>
+      <c r="T4" t="n">
+        <v>3.139385549427612</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.1853399223475373</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.1216002363622849</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.2518581621008404</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.3253279913604255</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.1674992579260805</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.641629194669067</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.7857523789255718</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.7057171840587108</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>1.017411614023771</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.9340216093890559</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0.5691729328664306</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>1.057786922292822</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.9590043568628072</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0.6154526492931871</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0.6195226822583301</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>1.513037817304522</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>1.735134797442924</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0.5510983553054251</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0.4697717029410907</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>1.904500852804588</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>1.409539422482511</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>1.553962706317038</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42">
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.1417531119108262</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.969119915501126</v>
+      </c>
+      <c r="E5" t="n">
+        <v>35.72864321542998</v>
+      </c>
+      <c r="F5" t="n">
+        <v>6.268760167437065</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.1829824160357571</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.1969552126302355</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.3104802667878246</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.2637267333027175</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.225468467065032</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.3166689077369308</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.04255294059732191</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.05361376583560521</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.09533818634958562</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.1235605299779228</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.2491572885919202</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.2981096740241451</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.1324934357872095</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.08964920324599535</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.1493782144074926</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.1497879849819749</v>
+      </c>
+      <c r="W5" t="n">
+        <v>5.628972453295349</v>
+      </c>
+      <c r="X5" t="n">
+        <v>9.519215867733195</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>8.931607979770197</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.1448145964390649</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.1470431800333462</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>4.66879503639309</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>5.229700067905928</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.07985922347749047</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0.12443352693817</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0.3900144015781633</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0.9250845940247265</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>1.731873053802023</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0.6342243566156044</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>1.1428822939994</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>1.232444649114515</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0.8787526476322756</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0.8214334885313624</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0.08386849851556646</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.08344876061304994</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0.07534665627167401</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42">
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.1656608827790464</v>
+      </c>
+      <c r="D6" t="n">
+        <v>8.020416685966145</v>
+      </c>
+      <c r="E6" t="n">
+        <v>34.67960888960132</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.880905570124425</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.3367464823793395</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.1358787905226566</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2.256273875948234</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.877674972662237</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.1497637991984213</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.192803107658371</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.1416068291867135</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.146849379093875</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.06462064975497639</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.06956259144268892</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>7.586108822805318</v>
+      </c>
+      <c r="R6" t="n">
+        <v>11.19113883749333</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.9743775073221034</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.3569149849166338</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.3623207583422408</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.489871859242466</v>
+      </c>
+      <c r="W6" t="n">
+        <v>3.550930422770411</v>
+      </c>
+      <c r="X6" t="n">
+        <v>4.643766337818635</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.1009841220161246</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.7336182489669405</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.7027512328241509</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.9134425513658739</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.5381409273568072</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.6486985721227884</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.9716708863297097</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>1.449404768933245</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.5500066315370817</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0.471773494113694</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.4584822910219185</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0.7590620631170701</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.3216849722572954</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.6975747023727025</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.9385980521267313</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>1.743303048754368</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>1.30589066348551</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.2386599225504117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42">
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.0887379601020289</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.865328090755939</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2.385086166460944</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.504410299828578</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.3103126399009491</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.5540654663747893</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.142055946267055</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.07764657353350729</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.1889527883675386</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.2051183078801623</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.28640128033185</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2.274756254235184</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.498832846022264</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.2777707331124813</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.4720917050286415</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.3840548668808013</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.4717659703354731</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.213776249345687</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.46081009233408</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.917738551418511</v>
+      </c>
+      <c r="W7" t="n">
+        <v>1.990742692259154</v>
+      </c>
+      <c r="X7" t="n">
+        <v>1.335847200712966</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.2234377607011989</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.5114567378915683</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>1.052072798258018</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>1.40182497699363</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>2.037194168118002</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>2.770920853310855</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>1.560915604451849</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>2.33365663723622</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0.2202339745093812</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>1.399995991746228</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>4.15871669822594</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>2.768105392053051</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>1.516508112883741</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>1.239773165484788</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0.987643711137548</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>2.208537145989963</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>2.600322058251415</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>1.417082750340293</v>
+      </c>
+    </row>
+    <row r="8" spans="1:42">
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1110740609471891</v>
+      </c>
+      <c r="D8" t="n">
+        <v>10.21664805424462</v>
+      </c>
+      <c r="E8" t="n">
+        <v>41.22490419337207</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.342344745450159</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.3305659836208193</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.2844211676993469</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.4144380049231757</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.2691643321486319</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.1500693008803002</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.195308907788062</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.2534905965226397</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.1396024198040848</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.1776797897051869</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.9389663844902534</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.483037232539755</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.171907864313519</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.082337644420685</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.696753064390559</v>
+      </c>
+      <c r="U8" t="n">
+        <v>2.094869113300957</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.2896379949258652</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1.98803387848858</v>
+      </c>
+      <c r="X8" t="n">
+        <v>15.31689556637676</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>9.57073293572039</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>1.725723168822806</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>1.67963774476115</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>2.119046953011033</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>1.747939129361482</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>8.642980778194367</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>9.302157680595126</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>5.481607687852371</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>5.224686345974566</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>2.9782631113447</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>4.239794607040177</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>4.163017578997247</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>1.86208608709235</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>3.435251324687363</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>2.70766511580186</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>3.09941564839148</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>2.245453146307128</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>1.561984388715737</v>
+      </c>
+    </row>
+    <row r="9" spans="1:42">
+      <c r="B9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.05867639872744893</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.73930996611178</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.1709335582907</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.4597169474499745</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.1526060846046427</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.1777970925507208</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.1802463641767597</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.1875341468010219</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.1537197419165294</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.09434249827773643</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.1904592995481395</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.2200089579304567</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.08751811243611071</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.08659802226591141</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.2030643921064609</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.2081824379357274</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.7026323623023735</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.1948355454220493</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.3199065655175793</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.1939061237562276</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.3738498818227953</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.4028780596947703</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0.1534324237430478</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.3569431184998089</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>1.349333647822489</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>1.413970528643925</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>1.006107812801959</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0.2403548375846302</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0.1874100839501371</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0.1643286228332347</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0.8044537691695826</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>1.493544928880723</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0.4673254159411017</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0.07851455693940083</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0.1374262593803775</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0.3402360007364337</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0.2044764218408859</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0.2595588359472635</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0.4555384718713766</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>3.050937095058869</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42">
+      <c r="B10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.09825227577033248</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4462690155871117</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2.586191370582559</v>
+      </c>
+      <c r="F10" t="n">
+        <v>3.289913982706186</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3.334154468902416</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2.69478240206213</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1.749256160402969</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.8125342881520058</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.8480488746453552</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.065466168773631</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.18933145270801</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.2487291444235772</v>
+      </c>
+      <c r="O10" t="n">
+        <v>5.695986871350436</v>
+      </c>
+      <c r="P10" t="n">
+        <v>9.00997694871506</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.2190995661495602</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.2117315957460341</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.1711683608288039</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.2295292084388364</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.564817423219388</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.764641008046402</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.8512855630737615</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.7467933298879751</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.6969169914221415</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.8685430136744082</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0.9565985255644885</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0.5316117956438301</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0.6983387688899338</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0.3159086646584518</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0.6446258786964558</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0.8049281709123629</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0.9659791257186501</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>2.037131359977866</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0.4748689763931163</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>1.483782194010999</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>1.411967262668901</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0.7057644931348382</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0.4036408120160941</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0.5604065684997832</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0.5864983610864215</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0.8269363736035543</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42">
+      <c r="B11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.348113479478363</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1.140392628035626</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2.507166497488333</v>
+      </c>
+      <c r="F11" t="n">
+        <v>8.694620004891759</v>
+      </c>
+      <c r="G11" t="n">
+        <v>4.209129818971772</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1.133837759227328</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.287825130983687</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.2506189066661688</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.4238264694654855</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.5099119968736149</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.648517950904652</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.4102736771344113</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.5534846378272451</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.3846355151702274</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.3108440493904269</v>
+      </c>
+      <c r="R11" t="n">
+        <v>3.282811693560713</v>
+      </c>
+      <c r="S11" t="n">
+        <v>13.51704724654661</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.3153457929103394</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.4695689151415324</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.3817829708333627</v>
+      </c>
+      <c r="W11" t="n">
+        <v>2.091707689231222</v>
+      </c>
+      <c r="X11" t="n">
+        <v>2.821877047651727</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0.8656750530958732</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0.2380860810999796</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0.2264299482807771</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0.5623891450508056</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0.5232461898022727</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0.4611548327137648</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0.4409421244137804</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0.9933721978043814</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0.9485916715340436</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>0.3027913282496404</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0.6238220642328746</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>0.9843916099287874</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>0.3406118482756084</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>1.840117034792338</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>2.381834593248131</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>5.610377953042109</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>3.382453287995483</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>8.447787432437659</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:AP11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:42">
+      <c r="B1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" t="s">
+        <v>8</v>
+      </c>
+      <c r="S1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U1" t="s">
+        <v>10</v>
+      </c>
+      <c r="V1" t="s">
+        <v>10</v>
+      </c>
+      <c r="W1" t="s">
+        <v>11</v>
+      </c>
+      <c r="X1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:42">
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="n">
+        <v>8.70909462867405</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.845789277396852</v>
+      </c>
+      <c r="E2" t="n">
+        <v>6.288252920705234</v>
+      </c>
+      <c r="F2" t="n">
+        <v>6.638775627923139</v>
+      </c>
+      <c r="G2" t="n">
+        <v>6.971382658433704</v>
+      </c>
+      <c r="H2" t="n">
+        <v>6.942495426410522</v>
+      </c>
+      <c r="I2" t="n">
+        <v>6.981561467062349</v>
+      </c>
+      <c r="J2" t="n">
+        <v>6.899721411175865</v>
+      </c>
+      <c r="K2" t="n">
+        <v>6.652817498834245</v>
+      </c>
+      <c r="L2" t="n">
+        <v>8.045105990230207</v>
+      </c>
+      <c r="M2" t="n">
+        <v>6.658208174636269</v>
+      </c>
+      <c r="N2" t="n">
+        <v>7.356497312841604</v>
+      </c>
+      <c r="O2" t="n">
+        <v>7.525504085556065</v>
+      </c>
+      <c r="P2" t="n">
+        <v>6.76680291133339</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>6.291757059398678</v>
+      </c>
+      <c r="R2" t="n">
+        <v>6.955905762354136</v>
+      </c>
+      <c r="S2" t="n">
+        <v>8.014925581065659</v>
+      </c>
+      <c r="T2" t="n">
+        <v>6.96875</v>
+      </c>
+      <c r="U2" t="n">
+        <v>6.708384443048901</v>
+      </c>
+      <c r="V2" t="n">
+        <v>5.644518614272342</v>
+      </c>
+      <c r="W2" t="n">
+        <v>6.319823682523881</v>
+      </c>
+      <c r="X2" t="n">
+        <v>5.729495330713379</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>7.894327538514311</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>7.416872764845216</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>8.18639907120037</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>7.555267820447217</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>8.402430591615696</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>7.303526679115819</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>6.493202247392043</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>7.541221343478032</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>7.896938216987245</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>6.973898073778781</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>7.796800799419708</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>7.388509504885268</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>8.162564687302297</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>6.808559560591005</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>9.289688083870876</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>7.522509029539967</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>8.585075050632009</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>9.641849301591149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42">
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="n">
+        <v>10.24302303211405</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.805616292335215</v>
+      </c>
+      <c r="E3" t="n">
+        <v>5.526153930654868</v>
+      </c>
+      <c r="F3" t="n">
+        <v>6.754887502163458</v>
+      </c>
+      <c r="G3" t="n">
+        <v>6.977279923499926</v>
+      </c>
+      <c r="H3" t="n">
+        <v>6.749835700923704</v>
+      </c>
+      <c r="I3" t="n">
+        <v>7.111182558072532</v>
+      </c>
+      <c r="J3" t="n">
+        <v>7.147777924156471</v>
+      </c>
+      <c r="K3" t="n">
+        <v>6.984521664779742</v>
+      </c>
+      <c r="L3" t="n">
+        <v>6.852747534795265</v>
+      </c>
+      <c r="M3" t="n">
+        <v>6.731487077070493</v>
+      </c>
+      <c r="N3" t="n">
+        <v>6.890223928941868</v>
+      </c>
+      <c r="O3" t="n">
+        <v>6.507794640198703</v>
+      </c>
+      <c r="P3" t="n">
+        <v>7.311848005048879</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>4.58450116981676</v>
+      </c>
+      <c r="R3" t="n">
+        <v>6.591101619960576</v>
+      </c>
+      <c r="S3" t="n">
+        <v>6.831204371811521</v>
+      </c>
+      <c r="T3" t="n">
+        <v>5.824074832391527</v>
+      </c>
+      <c r="U3" t="n">
+        <v>6.404838086218461</v>
+      </c>
+      <c r="V3" t="n">
+        <v>5.876441892742239</v>
+      </c>
+      <c r="W3" t="n">
+        <v>4.465841199487176</v>
+      </c>
+      <c r="X3" t="n">
+        <v>4.476987035786531</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>8.107585076958205</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>6.418969268618461</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>4.983867907054327</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>4.242873789353385</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>5.601537338011569</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>6.397790206344422</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>6.126626408705996</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>6.976213966874609</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>8.229366748545969</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>6.909994180135977</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>8.851665736635869</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>7.377210797228922</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>7.888242513961149</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>6.196667864928073</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>7.743532850524653</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>6.915990441698551</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>7.612486297996603</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>7.828453712646573</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42">
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="n">
+        <v>10.45090190651121</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.728952965645975</v>
+      </c>
+      <c r="E4" t="n">
+        <v>5.918688322710287</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6.436704345910033</v>
+      </c>
+      <c r="G4" t="n">
+        <v>7.186066902659483</v>
+      </c>
+      <c r="H4" t="n">
+        <v>6.63320965569699</v>
+      </c>
+      <c r="I4" t="n">
+        <v>7.06608919045778</v>
+      </c>
+      <c r="J4" t="n">
+        <v>6.516579922407415</v>
+      </c>
+      <c r="K4" t="n">
+        <v>6.41012655304352</v>
+      </c>
+      <c r="L4" t="n">
+        <v>6.62935662007962</v>
+      </c>
+      <c r="M4" t="n">
+        <v>6.087462841250345</v>
+      </c>
+      <c r="N4" t="n">
+        <v>6.129283016944973</v>
+      </c>
+      <c r="O4" t="n">
+        <v>6.71785046512642</v>
+      </c>
+      <c r="P4" t="n">
+        <v>6.385861524373001</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>6.501822825622244</v>
+      </c>
+      <c r="R4" t="n">
+        <v>6.049605867028728</v>
+      </c>
+      <c r="S4" t="n">
+        <v>5.14510315468152</v>
+      </c>
+      <c r="T4" t="n">
+        <v>6.149076931320865</v>
+      </c>
+      <c r="U4" t="n">
+        <v>6.228818690495891</v>
+      </c>
+      <c r="V4" t="n">
+        <v>6.108524456778164</v>
+      </c>
+      <c r="W4" t="n">
+        <v>7.391249800455487</v>
+      </c>
+      <c r="X4" t="n">
+        <v>7.490638582969319</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>7.817117006783993</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>7.30009259945267</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>7.189489715203629</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>7.158060572074439</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>7.045920127514492</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>6.276285327421538</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>6.788591681082323</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>6.116182869168654</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>6.303490210708413</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>6.519196572756622</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>6.902625421463877</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>6.13544550525874</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>7.040165439018306</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>6.484996765026307</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>8.043062263998509</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>5.93880379065392</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>5.630110852724327</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>6.601762305480605</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42">
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="n">
+        <v>9.433617187139363</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.272737944837231</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.7050992208935863</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2.021046309777879</v>
+      </c>
+      <c r="G5" t="n">
+        <v>6.480795834054494</v>
+      </c>
+      <c r="H5" t="n">
+        <v>7.003369005252844</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5.845356882666865</v>
+      </c>
+      <c r="J5" t="n">
+        <v>5.909440452801157</v>
+      </c>
+      <c r="K5" t="n">
+        <v>6.020925641918248</v>
+      </c>
+      <c r="L5" t="n">
+        <v>6.026438844826319</v>
+      </c>
+      <c r="M5" t="n">
+        <v>6.942514505339227</v>
+      </c>
+      <c r="N5" t="n">
+        <v>6.271928094887357</v>
+      </c>
+      <c r="O5" t="n">
+        <v>6.368507898969236</v>
+      </c>
+      <c r="P5" t="n">
+        <v>6.25976119322123</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>6.432288185692477</v>
+      </c>
+      <c r="R5" t="n">
+        <v>6.307870907835705</v>
+      </c>
+      <c r="S5" t="n">
+        <v>6.47573343096641</v>
+      </c>
+      <c r="T5" t="n">
+        <v>6.195295934496223</v>
+      </c>
+      <c r="U5" t="n">
+        <v>6.087462841250345</v>
+      </c>
+      <c r="V5" t="n">
+        <v>6.278464292480902</v>
+      </c>
+      <c r="W5" t="n">
+        <v>2.360810412547024</v>
+      </c>
+      <c r="X5" t="n">
+        <v>3.764716990277162</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>4.010591448949422</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>6.62385618977474</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>7.373623335551797</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>4.270490201659342</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>3.602399073900142</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>7.425340709546398</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>8.259454239797309</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>7.551302526844961</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>3.414763726572758</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>5.974666824126473</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>7.25373845353956</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>5.035232183525581</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>7.653081830756807</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>5.915140169532884</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>6.771989469955218</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>7.701294982965104</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>8.94612771745069</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>8.350912270410166</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42">
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="n">
+        <v>8.074685473896363</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.386869406428501</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.7786132610231421</v>
+      </c>
+      <c r="F6" t="n">
+        <v>4.095992397505913</v>
+      </c>
+      <c r="G6" t="n">
+        <v>7.253799527707908</v>
+      </c>
+      <c r="H6" t="n">
+        <v>7.199543289467064</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.727972430794645</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.801813883223953</v>
+      </c>
+      <c r="K6" t="n">
+        <v>6.751461557715281</v>
+      </c>
+      <c r="L6" t="n">
+        <v>6.763934191685138</v>
+      </c>
+      <c r="M6" t="n">
+        <v>6.46557928929815</v>
+      </c>
+      <c r="N6" t="n">
+        <v>6.622043426502563</v>
+      </c>
+      <c r="O6" t="n">
+        <v>6.823498236506867</v>
+      </c>
+      <c r="P6" t="n">
+        <v>7.124736676221853</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.322660999235956</v>
+      </c>
+      <c r="R6" t="n">
+        <v>3.356511385043202</v>
+      </c>
+      <c r="S6" t="n">
+        <v>6.270368611923359</v>
+      </c>
+      <c r="T6" t="n">
+        <v>6.808744447222215</v>
+      </c>
+      <c r="U6" t="n">
+        <v>6.351741040194076</v>
+      </c>
+      <c r="V6" t="n">
+        <v>6.451042874344828</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1.858864194949981</v>
+      </c>
+      <c r="X6" t="n">
+        <v>2.869080987956155</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>8.209977581526495</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>7.084804534546099</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>7.577358187777574</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>7.334964864882071</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>7.401139036387117</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>7.517344807772049</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>5.434229889063533</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>5.75198330981055</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>5.703209869933346</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>7.008319405246335</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>7.789337280790423</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>6.676214606947658</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>7.230997812531739</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>5.962033430012625</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>5.309618888881649</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>4.585215779907792</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>5.83889035668117</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>6.533312255932944</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42">
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="n">
+        <v>10.42910504741039</v>
+      </c>
+      <c r="D7" t="n">
+        <v>7.665511359059023</v>
+      </c>
+      <c r="E7" t="n">
+        <v>6.373235826376317</v>
+      </c>
+      <c r="F7" t="n">
+        <v>7.606897234608619</v>
+      </c>
+      <c r="G7" t="n">
+        <v>7.378758439731472</v>
+      </c>
+      <c r="H7" t="n">
+        <v>7.405496826118024</v>
+      </c>
+      <c r="I7" t="n">
+        <v>7.125208788918545</v>
+      </c>
+      <c r="J7" t="n">
+        <v>6.569855608330948</v>
+      </c>
+      <c r="K7" t="n">
+        <v>6.651167008243306</v>
+      </c>
+      <c r="L7" t="n">
+        <v>7.142664355548831</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5.253016693490611</v>
+      </c>
+      <c r="N7" t="n">
+        <v>6.915977441389348</v>
+      </c>
+      <c r="O7" t="n">
+        <v>7.124980545778677</v>
+      </c>
+      <c r="P7" t="n">
+        <v>6.978089674169471</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>8.175099730160138</v>
+      </c>
+      <c r="R7" t="n">
+        <v>7.36507627806944</v>
+      </c>
+      <c r="S7" t="n">
+        <v>7.028639311838563</v>
+      </c>
+      <c r="T7" t="n">
+        <v>6.447408651885218</v>
+      </c>
+      <c r="U7" t="n">
+        <v>6.90803048299481</v>
+      </c>
+      <c r="V7" t="n">
+        <v>5.961088261024097</v>
+      </c>
+      <c r="W7" t="n">
+        <v>5.362106864356335</v>
+      </c>
+      <c r="X7" t="n">
+        <v>6.661868141974152</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>8.073162564071779</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>6.890255921368265</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>6.265663970967022</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>5.025398128334647</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>6.730172710779874</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>4.175614584360047</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>6.281186051648009</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>5.627279507765088</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>7.43832003059719</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>5.904468417026391</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>6.020992967078429</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>6.077971246540116</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>7.904295021385177</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>5.570330516886878</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>7.454098986076693</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>2.645848866971269</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>5.497517772501536</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>5.387503989285511</v>
+      </c>
+    </row>
+    <row r="8" spans="1:42">
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="n">
+        <v>9.976487139081321</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4.059460039737775</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4.074980295815455</v>
+      </c>
+      <c r="F8" t="n">
+        <v>7.541480261853768</v>
+      </c>
+      <c r="G8" t="n">
+        <v>7.452612849175633</v>
+      </c>
+      <c r="H8" t="n">
+        <v>7.926916757406377</v>
+      </c>
+      <c r="I8" t="n">
+        <v>6.723750920509605</v>
+      </c>
+      <c r="J8" t="n">
+        <v>8.753745231016206</v>
+      </c>
+      <c r="K8" t="n">
+        <v>7.107493598377928</v>
+      </c>
+      <c r="L8" t="n">
+        <v>7.258350289366816</v>
+      </c>
+      <c r="M8" t="n">
+        <v>7.236869540379016</v>
+      </c>
+      <c r="N8" t="n">
+        <v>7.561368954366504</v>
+      </c>
+      <c r="O8" t="n">
+        <v>6.603856189774739</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5.971500756709306</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>7.389836102485235</v>
+      </c>
+      <c r="R8" t="n">
+        <v>6.501446812125327</v>
+      </c>
+      <c r="S8" t="n">
+        <v>6.143665334298242</v>
+      </c>
+      <c r="T8" t="n">
+        <v>5.371768047494843</v>
+      </c>
+      <c r="U8" t="n">
+        <v>6.526897406683178</v>
+      </c>
+      <c r="V8" t="n">
+        <v>7.326167131922323</v>
+      </c>
+      <c r="W8" t="n">
+        <v>5.726093448578161</v>
+      </c>
+      <c r="X8" t="n">
+        <v>4.910752945190017</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>2.030741751883261</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>3.963940297739878</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>6.142783208687538</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>6.160525703699451</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>3.882461683968995</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>4.333880023398529</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>6.260451777463425</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>6.84906992055379</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>4.07047525351271</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>6.368765755906957</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>7.007855211936358</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>3.615602542445458</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>7.914841724522626</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>7.147878774051041</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>8.755665428210955</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>4.587012766452482</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>4.543988603898139</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>6.015201123428379</v>
+      </c>
+    </row>
+    <row r="9" spans="1:42">
+      <c r="B9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="n">
+        <v>10.38918463551333</v>
+      </c>
+      <c r="D9" t="n">
+        <v>4.757849522072695</v>
+      </c>
+      <c r="E9" t="n">
+        <v>5.465378404003781</v>
+      </c>
+      <c r="F9" t="n">
+        <v>7.963412957542365</v>
+      </c>
+      <c r="G9" t="n">
+        <v>7.302812965847568</v>
+      </c>
+      <c r="H9" t="n">
+        <v>7.788921671988476</v>
+      </c>
+      <c r="I9" t="n">
+        <v>7.308771516813225</v>
+      </c>
+      <c r="J9" t="n">
+        <v>7.372083933688829</v>
+      </c>
+      <c r="K9" t="n">
+        <v>6.897950452317</v>
+      </c>
+      <c r="L9" t="n">
+        <v>7.152322883118405</v>
+      </c>
+      <c r="M9" t="n">
+        <v>7.056375506077186</v>
+      </c>
+      <c r="N9" t="n">
+        <v>7.128372284547866</v>
+      </c>
+      <c r="O9" t="n">
+        <v>7.098032082960511</v>
+      </c>
+      <c r="P9" t="n">
+        <v>7.623856189774742</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>7.762044071654803</v>
+      </c>
+      <c r="R9" t="n">
+        <v>8.541718840264403</v>
+      </c>
+      <c r="S9" t="n">
+        <v>6.987877471966994</v>
+      </c>
+      <c r="T9" t="n">
+        <v>7.975408603242617</v>
+      </c>
+      <c r="U9" t="n">
+        <v>6.70635961616178</v>
+      </c>
+      <c r="V9" t="n">
+        <v>7.568480648275367</v>
+      </c>
+      <c r="W9" t="n">
+        <v>7.395791439729162</v>
+      </c>
+      <c r="X9" t="n">
+        <v>7.693270682591403</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>8.311286118497172</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>6.629317453690858</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>2.71691553895813</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>4.801441598326712</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>5.74829664709649</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>7.268805076872367</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>7.588220835496796</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>7.131899308806369</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>6.831028712589765</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>6.147570672772289</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>7.652607651034184</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>7.231244051842959</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>8.091848302277999</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>5.19529593449622</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>8.807180255595767</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>6.868521659182302</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>7.455536085450433</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>5.490759302906781</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42">
+      <c r="B10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="n">
+        <v>10.26993382252359</v>
+      </c>
+      <c r="D10" t="n">
+        <v>7.587315029430786</v>
+      </c>
+      <c r="E10" t="n">
+        <v>5.015656290015476</v>
+      </c>
+      <c r="F10" t="n">
+        <v>6.909742846956045</v>
+      </c>
+      <c r="G10" t="n">
+        <v>5.956126760223617</v>
+      </c>
+      <c r="H10" t="n">
+        <v>6.865842998691928</v>
+      </c>
+      <c r="I10" t="n">
+        <v>4.685631245527454</v>
+      </c>
+      <c r="J10" t="n">
+        <v>6.542081841897271</v>
+      </c>
+      <c r="K10" t="n">
+        <v>7.096889766141221</v>
+      </c>
+      <c r="L10" t="n">
+        <v>6.242723850958239</v>
+      </c>
+      <c r="M10" t="n">
+        <v>7.026136460453181</v>
+      </c>
+      <c r="N10" t="n">
+        <v>7.279271637960271</v>
+      </c>
+      <c r="O10" t="n">
+        <v>6.476321653034232</v>
+      </c>
+      <c r="P10" t="n">
+        <v>6.202226015711016</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>6.861204317929792</v>
+      </c>
+      <c r="R10" t="n">
+        <v>8.534266706830413</v>
+      </c>
+      <c r="S10" t="n">
+        <v>7.477746439569363</v>
+      </c>
+      <c r="T10" t="n">
+        <v>8.440810634752145</v>
+      </c>
+      <c r="U10" t="n">
+        <v>6.985715699406626</v>
+      </c>
+      <c r="V10" t="n">
+        <v>6.584094313247171</v>
+      </c>
+      <c r="W10" t="n">
+        <v>6.618268173439723</v>
+      </c>
+      <c r="X10" t="n">
+        <v>7.175856609699101</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>7.392740482841142</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>7.118039691775131</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>7.761627786620694</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>7.770896979542758</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>7.282549688488862</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>7.556048262467596</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>7.164326240932899</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>7.108818690495867</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>5.957436229472135</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>5.981004258821865</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>6.890255921368265</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>6.767803079903863</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>6.855702878029941</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>6.981599521034514</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>7.721684028807888</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>8.302679644517388</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>8.150871100573948</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>8.779801024745167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42">
+      <c r="B11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="n">
+        <v>6.797941589483698</v>
+      </c>
+      <c r="D11" t="n">
+        <v>4.316822781835701</v>
+      </c>
+      <c r="E11" t="n">
+        <v>5.80206185613004</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5.461667772609125</v>
+      </c>
+      <c r="G11" t="n">
+        <v>5.742397274613833</v>
+      </c>
+      <c r="H11" t="n">
+        <v>7.763668560152623</v>
+      </c>
+      <c r="I11" t="n">
+        <v>6.583856189774739</v>
+      </c>
+      <c r="J11" t="n">
+        <v>8.173879516740094</v>
+      </c>
+      <c r="K11" t="n">
+        <v>7.039605517091945</v>
+      </c>
+      <c r="L11" t="n">
+        <v>7.256195729840667</v>
+      </c>
+      <c r="M11" t="n">
+        <v>7.419277509947361</v>
+      </c>
+      <c r="N11" t="n">
+        <v>7.197714662139109</v>
+      </c>
+      <c r="O11" t="n">
+        <v>6.990530423990467</v>
+      </c>
+      <c r="P11" t="n">
+        <v>7.82294574012063</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>7.571449701129189</v>
+      </c>
+      <c r="R11" t="n">
+        <v>7.473218824106813</v>
+      </c>
+      <c r="S11" t="n">
+        <v>7.096236994475552</v>
+      </c>
+      <c r="T11" t="n">
+        <v>7.613352257915196</v>
+      </c>
+      <c r="U11" t="n">
+        <v>6.724490950015316</v>
+      </c>
+      <c r="V11" t="n">
+        <v>7.375904664392338</v>
+      </c>
+      <c r="W11" t="n">
+        <v>4.275003527698369</v>
+      </c>
+      <c r="X11" t="n">
+        <v>5.576526899048126</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>7.272138534378279</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>7.359372982722148</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>8.609010157240732</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>7.051155570208913</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>7.823528993007435</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>6.524688155478683</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>8.204975599281436</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>7.173538330504005</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>8.104542755622655</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>6.865840530600264</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>7.62424730214688</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>7.01423984903823</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>8.191226100392564</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>5.480190072155977</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>3.431834165220743</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>4.959076176504269</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>5.555654394319045</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>5.947163442772815</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:AP11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:42">
+      <c r="B1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" t="s">
+        <v>8</v>
+      </c>
+      <c r="S1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U1" t="s">
+        <v>10</v>
+      </c>
+      <c r="V1" t="s">
+        <v>10</v>
+      </c>
+      <c r="W1" t="s">
+        <v>11</v>
+      </c>
+      <c r="X1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:42">
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.7523364523873328</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.6348958418238937</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.5729113691836892</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.5789893118803108</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.679868068656254</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.7155129696620965</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.6673846366611252</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.5836634363960184</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.664379396379674</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.6707168821750472</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.7142422462284277</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.6628586671057473</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.6799965360378983</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.6506734067708292</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.5780779239560063</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.5740915047475222</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.7075064055470047</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.6139243969683104</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.6652567948739571</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.5741689346405578</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.6438420806947993</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.571458609787957</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.5690954760103976</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.7308388284649314</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.5847565045889676</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.6271956496146754</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.5624976122061343</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.6730080479544928</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.5634490991286545</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.5719914021684428</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.6752501825651571</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0.6374730087930222</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.5629303600712756</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.6006273932502793</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0.7408217588032583</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0.682725354005053</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0.7449812322005105</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0.7001739337229057</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0.5670087144267106</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0.6966402425390282</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42">
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7309227293725833</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7127358761552858</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.5775018694898625</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.6555871178200041</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.5999203361077305</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.6140325788378445</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.5826852875886835</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.5985085238828751</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.5797715136105767</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.6672449245471898</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.6141815374509063</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.6491932256046039</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.7181200927500254</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.5743134141633405</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.5965864492118271</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.5724697616162358</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.6072222178052541</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.5801984795108182</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.5743806563022051</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.5818450448991082</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.6136159381475391</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.5696252632295212</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.7413552094162189</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.5740478874483997</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.5679147930638284</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.5800018302003556</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.5809351328180458</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.5786762770694104</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.5663654672099238</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.5826488555965542</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.5724048499481805</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.5787674193190855</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.6621620638568596</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0.6058076556266428</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0.6286164755898409</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0.5800045830839768</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.5756849801746624</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0.7428772573926652</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.6011694156720189</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0.67605035097833</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42">
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.6699963882517233</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.6160042807225593</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.5800558198987101</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.5744154787721725</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.5853153581234662</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.579370468327156</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.5727738013497462</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.6825235214489478</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.5800118070831786</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.6401029464944744</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.5852735199633567</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.5854241085434538</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.7033791080673115</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.6004060885267554</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.6046506864414158</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.6606516200509295</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.5823934264050056</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.5834581755132531</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.5820920662459678</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.5835319038411796</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.6444073623612272</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.5753122328512572</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.5942856810668096</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.6120231385191516</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.5743355609961402</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.6148899369782327</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.6673379619705786</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.5864663066273507</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0.5667184467004355</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0.6073305792353628</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.5708230097779085</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0.5901805525834833</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0.5627842118496145</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0.5790978610903135</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0.5748106203037623</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0.5726330874851161</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0.5709578117253766</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0.5960825589030225</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0.5600347777080621</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0.574688556896217</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42">
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.6990861628683733</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.7876638903858106</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.587595811850677</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.5812455756706277</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.6799649253572243</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.7243957098572128</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.5843845876258245</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.5852515330765614</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.6412966638478714</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.582417030908321</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.6503977538740586</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.6131289526376251</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.6935930584967867</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.6412953550346212</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.6315760245398448</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.5823727010791128</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.582491779556318</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.5992382728335006</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.613228744037462</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.5830655990557042</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.6849046177567325</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.5772185948299601</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.574642920068178</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.6793602892793457</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.5734078240801663</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0.5834018366877599</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.5736388077231682</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.5857461267673983</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0.7316675849083292</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0.7105660639862101</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0.5666590809879575</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0.5849722199023913</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0.5913746648813771</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0.6220580318260777</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0.5656713546855386</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0.6361899613434733</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0.5636681609580775</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0.5727568018624315</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.6073769786996387</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0.5685429944551613</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42">
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.7223913585210984</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.771251344246655</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5757954671632604</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.5735895790284855</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.5753277566647977</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.5749684502079416</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.6103416312484873</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.5798314495912805</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.5808125438159552</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.5744327876144326</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.5932627392307597</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.579451572551877</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.5867404475686946</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.6262126754435202</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.6751579753207683</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.5758738132596976</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.6153814197938304</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.5428704581160713</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.6386028683349828</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.6691275530246131</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.5760096985476447</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.5779715240319232</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.7278946773249665</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.7043895742435511</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.5858112490964309</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.6913834835050479</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.7005826728583054</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.7584347522135243</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.5647124206364486</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.5770767891019971</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.5622297480753081</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0.5759198786029346</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.698969098206737</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0.5785549693612196</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.5751168413862788</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.6343430050238912</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.5673839096911566</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0.5800570092541195</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.5762830446216818</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.666651525479996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42">
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.6145740557273047</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.6888235407771184</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.5923993938852982</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.5641270217299196</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.6057459127526424</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.6585392568884678</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.5803734935225517</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.6501082373576601</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.6535924345664355</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.5759385102134259</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.6217204346564552</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.6166437401124711</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.7865511785030586</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.5988197299887396</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.7637209915359556</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.5821859944740581</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.5771426952115117</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.5811082820741397</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.5763053706436114</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.5788748888815581</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.5797529490490627</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.5740957429699692</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.7338511315134828</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.5472512328057565</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.5993385088098794</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0.5720034484879988</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0.5848225801390126</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0.5769934918722234</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0.6317335692105781</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0.5794865233649013</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0.5767787530899734</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0.6508329011526669</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0.6453221344257986</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0.581041807022536</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0.591032433371419</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0.5715980575263736</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0.655695038185639</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0.5620521040420071</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>0.5787769590835683</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>0.6186273485728566</v>
+      </c>
+    </row>
+    <row r="8" spans="1:42">
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.7599441099620102</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5843379686796144</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.5723580378160145</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.6754661382980415</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.7314066608366308</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.6709651975983298</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.6149286946926368</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.566389563123692</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.6483037286250817</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.5740280961368742</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.5815907839947296</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.6656336983278007</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.6804856810861313</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.6795207622765188</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.5852080768599132</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.6531173634495488</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.6946301780578874</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.5705441065452929</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.5736415870678555</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.6607711415095662</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.6944442374286702</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.579570669693292</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0.5639687854052864</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.5758197083307833</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0.5679239392764115</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0.5815255269874529</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0.5656955043679145</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0.6064826854415101</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0.5651096838953353</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0.5739204284805772</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0.5687448852225826</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>0.5833338242394178</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0.6117026879106455</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>0.5785472479337607</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0.6084599518930556</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>0.6614849468827386</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0.616910345734658</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>0.6467448349152035</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>0.5614513898489877</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>0.5767119362640846</v>
+      </c>
+    </row>
+    <row r="9" spans="1:42">
+      <c r="B9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6964594674061372</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.653009752833294</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.5634068970064502</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.6186916070494843</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.6835575159524522</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.5694002649829057</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.6773281552028521</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.573600022083705</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.5925162447778105</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.5880813299534742</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.5924363942339926</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.5758202219566706</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.6000429122632573</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.6095248360467014</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.6257895817679016</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.562285924019209</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.7254921885538578</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.5672858535249453</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.6594150455800329</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.5725052278295573</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.6351670646733177</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.5703253972557253</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0.7347237262804772</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.6229007083442791</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0.5803912614207982</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0.5711742125166807</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0.5629511755651753</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0.5748346442704899</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0.5727513265242217</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0.6461157390820303</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0.7387005697255512</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0.5810332214555965</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0.5773433914795997</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0.6645129454708647</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0.6728271983745142</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0.5924715055445183</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0.5701880075361868</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0.6259378696332041</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0.5710037303438391</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0.7237444597605761</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42">
+      <c r="B10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.6988153920694397</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.7345497007527453</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.5803243705636161</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.5831352610900009</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.5670660063920415</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.6153070938634622</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.5747237108502703</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.5685243778123547</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.5710434908574922</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.5784450396284331</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.5762354376458536</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.5756296090882282</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.6794273020690603</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.5790978689448859</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.5801832701367564</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.7002564064274353</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.6218925485815237</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.6312108551427458</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.6168364420653113</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.5695464880034513</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.5868161296188561</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.598696037185882</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.583281224149181</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.6214636187998317</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0.5829918781866252</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0.6891579317187517</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0.57677188635301</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0.5727521183927918</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0.6633401672840622</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0.5762969250590243</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0.567289181191439</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0.5800790246351564</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0.585876384996048</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0.5810603927439649</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0.5706104041998437</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0.5754798908265865</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0.5561128386020296</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0.7897102012892409</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0.681717523214229</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0.7384187612798575</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42">
+      <c r="B11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8031328794864102</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.6972228354184412</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.5763770388527719</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.7263199269491646</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.5747559977406294</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.5729075059639991</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.7131774515387279</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.6143646820879366</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.5899527471225553</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.7624531272665976</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.6993956288586873</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.5683432250315673</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.5994013892350919</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.5752479760939372</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.7252889221398049</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.66523614460094</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.6609562002592474</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.636929708109325</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.5937211343960728</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.5713368356299753</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.7193518566566683</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.5682209574245813</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0.5670105049928739</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0.6726766992491474</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0.6871215266381179</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0.7100153944062572</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0.6053359250699443</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0.6618701921203519</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0.6796917352884942</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0.7359203915564987</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0.5815198216251415</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>0.6932077824244616</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0.6480083261578871</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>0.6430930921172523</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>0.6768344824020124</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>0.5858229495120264</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>0.5603342453681366</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>0.5820589093138817</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>0.6420881148530888</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>0.5779868579103991</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
 </file>
--- a/01/After_Soc_EEH2.xlsx
+++ b/01/After_Soc_EEH2.xlsx
@@ -587,124 +587,124 @@
         <v>12</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1672562726161239</v>
+        <v>0.1672562726156904</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9980198316900639</v>
+        <v>0.9980198316900484</v>
       </c>
       <c r="E2" t="n">
-        <v>2.051119778928536</v>
+        <v>2.051119778928418</v>
       </c>
       <c r="F2" t="n">
-        <v>1.160551723474533</v>
+        <v>1.160551723475069</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5270156979640955</v>
+        <v>0.5270156979639508</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6293220069806497</v>
+        <v>0.6293220069809429</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1984301033558755</v>
+        <v>0.1984301033572101</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1309209049518843</v>
+        <v>0.1309209049492359</v>
       </c>
       <c r="K2" t="n">
-        <v>0.06639895843832612</v>
+        <v>0.0663989584383763</v>
       </c>
       <c r="L2" t="n">
-        <v>0.07842555932822261</v>
+        <v>0.07842555932770573</v>
       </c>
       <c r="M2" t="n">
-        <v>0.5041499095217936</v>
+        <v>0.5041499095216745</v>
       </c>
       <c r="N2" t="n">
-        <v>0.09506080326868104</v>
+        <v>0.09506080326869593</v>
       </c>
       <c r="O2" t="n">
-        <v>0.06820705246157119</v>
+        <v>0.06820705246321168</v>
       </c>
       <c r="P2" t="n">
-        <v>0.468195234223071</v>
+        <v>0.4681952342234365</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.6311685802459273</v>
+        <v>0.6311685802457663</v>
       </c>
       <c r="R2" t="n">
-        <v>0.5483443218280423</v>
+        <v>0.548344321828044</v>
       </c>
       <c r="S2" t="n">
-        <v>0.2141432953237549</v>
+        <v>0.2141432953227947</v>
       </c>
       <c r="T2" t="n">
-        <v>0.09810556427076877</v>
+        <v>0.09810556427085433</v>
       </c>
       <c r="U2" t="n">
-        <v>0.6044140307941926</v>
+        <v>0.6044140307950593</v>
       </c>
       <c r="V2" t="n">
-        <v>0.6939415557583473</v>
+        <v>0.6939415557584461</v>
       </c>
       <c r="W2" t="n">
-        <v>0.6628574347725118</v>
+        <v>0.6628574347716841</v>
       </c>
       <c r="X2" t="n">
-        <v>1.328792065419794</v>
+        <v>1.328792065419842</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.265804017145456</v>
+        <v>1.265804017145469</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.8456149249193394</v>
+        <v>0.8456149249194098</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.8002154608125187</v>
+        <v>0.8002154608125299</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.2178405533815677</v>
+        <v>0.2178405533814716</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.2586213008095939</v>
+        <v>0.2586213008092409</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.9064679271405391</v>
+        <v>0.9064679271402923</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.7621188035558897</v>
+        <v>0.7621188035554555</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.2879216678649672</v>
+        <v>0.2879216678647992</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.4807664471373789</v>
+        <v>0.4807664471365381</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.9067690869158651</v>
+        <v>0.9067690869167341</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.4815840953153714</v>
+        <v>0.4815840953156411</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.1453331232601929</v>
+        <v>0.1453331232602049</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.6249078620714918</v>
+        <v>0.6249078620714413</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.8659883457139249</v>
+        <v>0.8659883457137794</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.1424878955612494</v>
+        <v>0.1424878955603902</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.2520875097383253</v>
+        <v>0.2520875097382108</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.2846069588928665</v>
+        <v>0.2846069588940741</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.4550137296005165</v>
+        <v>0.4550137296007746</v>
       </c>
     </row>
     <row r="3" spans="1:42">
@@ -712,124 +712,124 @@
         <v>13</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06747150449005082</v>
+        <v>0.06747150448996525</v>
       </c>
       <c r="D3" t="n">
-        <v>2.027181706843916</v>
+        <v>2.027181706843982</v>
       </c>
       <c r="E3" t="n">
-        <v>4.938912287359948</v>
+        <v>4.938912287359811</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1453733236592682</v>
+        <v>0.1453733236591508</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1533825614402226</v>
+        <v>0.1533825614403505</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1672196589853345</v>
+        <v>0.1672196589852266</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1779484049812056</v>
+        <v>0.1779484049810302</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2759464360714863</v>
+        <v>0.2759464360715705</v>
       </c>
       <c r="K3" t="n">
-        <v>0.341691333326616</v>
+        <v>0.3416913333264439</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1365025273501193</v>
+        <v>0.1365025273497252</v>
       </c>
       <c r="M3" t="n">
-        <v>0.346139125101212</v>
+        <v>0.3461391251011257</v>
       </c>
       <c r="N3" t="n">
-        <v>0.4190136007195367</v>
+        <v>0.419013600719573</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1698991002010636</v>
+        <v>0.169899100201126</v>
       </c>
       <c r="P3" t="n">
-        <v>0.1551235764268288</v>
+        <v>0.155123576426832</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.726488336846417</v>
+        <v>1.726488336846682</v>
       </c>
       <c r="R3" t="n">
-        <v>1.815295879672904</v>
+        <v>1.815295879672498</v>
       </c>
       <c r="S3" t="n">
-        <v>1.03144494954166</v>
+        <v>1.031444949541453</v>
       </c>
       <c r="T3" t="n">
-        <v>1.70884981936554</v>
+        <v>1.708849819365278</v>
       </c>
       <c r="U3" t="n">
-        <v>1.958090911835711</v>
+        <v>1.958090911835537</v>
       </c>
       <c r="V3" t="n">
-        <v>1.577768144674877</v>
+        <v>1.577768144674221</v>
       </c>
       <c r="W3" t="n">
-        <v>1.65494005603229</v>
+        <v>1.654940056032292</v>
       </c>
       <c r="X3" t="n">
-        <v>1.963242144457614</v>
+        <v>1.963242144458061</v>
       </c>
       <c r="Y3" t="n">
-        <v>3.208757215897345</v>
+        <v>3.208757215897415</v>
       </c>
       <c r="Z3" t="n">
-        <v>3.765410468733632</v>
+        <v>3.76541046873364</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.657824109273062</v>
+        <v>1.657824109273497</v>
       </c>
       <c r="AB3" t="n">
-        <v>3.219766852528053</v>
+        <v>3.21976685252837</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.7488702508189633</v>
+        <v>0.7488702508183357</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.8993413409132289</v>
+        <v>0.8993413409133032</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.6787787995000915</v>
+        <v>0.6787787995001798</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.1494344147726369</v>
+        <v>0.1494344147720653</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.114957572158609</v>
+        <v>0.1149575721590975</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.1742032096084464</v>
+        <v>0.1742032096084402</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.0515462427239596</v>
+        <v>0.05154624272370227</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.0798840045279007</v>
+        <v>0.07988400452762932</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.4626529337395699</v>
+        <v>0.462652933739571</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.9601121181564251</v>
+        <v>0.9601121181564267</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.7338996439519134</v>
+        <v>0.733899643951807</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.504267298885725</v>
+        <v>0.50426729888566</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.5014304855465306</v>
+        <v>0.5014304855463256</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.340357388375321</v>
+        <v>0.340357388375427</v>
       </c>
     </row>
     <row r="4" spans="1:42">
@@ -837,124 +837,124 @@
         <v>14</v>
       </c>
       <c r="C4" t="n">
-        <v>0.09533013008340506</v>
+        <v>0.09533013008346053</v>
       </c>
       <c r="D4" t="n">
-        <v>1.216988366487895</v>
+        <v>1.216988366488074</v>
       </c>
       <c r="E4" t="n">
-        <v>2.948979177229986</v>
+        <v>2.948979177229964</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1567259911255481</v>
+        <v>0.1567259911256812</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1780823949961332</v>
+        <v>0.1780823949962921</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2076159785140428</v>
+        <v>0.207615978514022</v>
       </c>
       <c r="I4" t="n">
-        <v>0.07233200627016323</v>
+        <v>0.07233200627009839</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4440666479783462</v>
+        <v>0.4440666479783701</v>
       </c>
       <c r="K4" t="n">
-        <v>0.6186861283289934</v>
+        <v>0.6186861283290388</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2688609207837492</v>
+        <v>0.2688609207837189</v>
       </c>
       <c r="M4" t="n">
-        <v>0.3249690248045128</v>
+        <v>0.3249690248045242</v>
       </c>
       <c r="N4" t="n">
-        <v>0.2363551092898811</v>
+        <v>0.2363551092899271</v>
       </c>
       <c r="O4" t="n">
-        <v>0.2248788723165986</v>
+        <v>0.2248788723165279</v>
       </c>
       <c r="P4" t="n">
-        <v>0.2830900111220371</v>
+        <v>0.2830900111221148</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.1794696698462636</v>
+        <v>0.1794696698462637</v>
       </c>
       <c r="R4" t="n">
-        <v>0.7993560895610443</v>
+        <v>0.7993560895610788</v>
       </c>
       <c r="S4" t="n">
-        <v>2.710356466254374</v>
+        <v>2.710356466253869</v>
       </c>
       <c r="T4" t="n">
-        <v>3.139385549427612</v>
+        <v>3.139385549427815</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1853399223475373</v>
+        <v>0.1853399223476795</v>
       </c>
       <c r="V4" t="n">
-        <v>0.1216002363622849</v>
+        <v>0.121600236361329</v>
       </c>
       <c r="W4" t="n">
-        <v>0.2518581621008404</v>
+        <v>0.2518581621006763</v>
       </c>
       <c r="X4" t="n">
-        <v>0.3253279913604255</v>
+        <v>0.3253279913605819</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.1674992579260805</v>
+        <v>0.1674992579264191</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.641629194669067</v>
+        <v>0.6416291946690837</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.7857523789255718</v>
+        <v>0.7857523789256641</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.7057171840587108</v>
+        <v>0.7057171840587931</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.017411614023771</v>
+        <v>1.017411614024113</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.9340216093890559</v>
+        <v>0.934021609389328</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.5691729328664306</v>
+        <v>0.569172932866302</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.057786922292822</v>
+        <v>1.057786922293124</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.9590043568628072</v>
+        <v>0.9590043568627251</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.6154526492931871</v>
+        <v>0.6154526492930088</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.6195226822583301</v>
+        <v>0.6195226822582988</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1.513037817304522</v>
+        <v>1.513037817304539</v>
       </c>
       <c r="AK4" t="n">
-        <v>1.735134797442924</v>
+        <v>1.735134797442872</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.5510983553054251</v>
+        <v>0.5510983553054182</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.4697717029410907</v>
+        <v>0.4697717029410646</v>
       </c>
       <c r="AN4" t="n">
-        <v>1.904500852804588</v>
+        <v>1.904500852804707</v>
       </c>
       <c r="AO4" t="n">
-        <v>1.409539422482511</v>
+        <v>1.409539422482585</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.553962706317038</v>
+        <v>1.553962706316945</v>
       </c>
     </row>
     <row r="5" spans="1:42">
@@ -962,124 +962,124 @@
         <v>15</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1417531119108262</v>
+        <v>0.1417531119110253</v>
       </c>
       <c r="D5" t="n">
-        <v>4.969119915501126</v>
+        <v>4.969119915500658</v>
       </c>
       <c r="E5" t="n">
-        <v>35.72864321542998</v>
+        <v>35.7286432154294</v>
       </c>
       <c r="F5" t="n">
-        <v>6.268760167437065</v>
+        <v>6.268760167437642</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1829824160357571</v>
+        <v>0.1829824160352964</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1969552126302355</v>
+        <v>0.1969552126276445</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3104802667878246</v>
+        <v>0.3104802667869718</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2637267333027175</v>
+        <v>0.2637267333036075</v>
       </c>
       <c r="K5" t="n">
-        <v>0.225468467065032</v>
+        <v>0.2254684670619924</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3166689077369308</v>
+        <v>0.3166689077347812</v>
       </c>
       <c r="M5" t="n">
-        <v>0.04255294059732191</v>
+        <v>0.04255294059843648</v>
       </c>
       <c r="N5" t="n">
-        <v>0.05361376583560521</v>
+        <v>0.05361376583577345</v>
       </c>
       <c r="O5" t="n">
-        <v>0.09533818634958562</v>
+        <v>0.09533818635280354</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1235605299779228</v>
+        <v>0.1235605299769421</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.2491572885919202</v>
+        <v>0.2491572885918243</v>
       </c>
       <c r="R5" t="n">
-        <v>0.2981096740241451</v>
+        <v>0.2981096740238914</v>
       </c>
       <c r="S5" t="n">
-        <v>0.1324934357872095</v>
+        <v>0.1324934357868882</v>
       </c>
       <c r="T5" t="n">
-        <v>0.08964920324599535</v>
+        <v>0.08964920324601679</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1493782144074926</v>
+        <v>0.1493782144077395</v>
       </c>
       <c r="V5" t="n">
-        <v>0.1497879849819749</v>
+        <v>0.1497879849819096</v>
       </c>
       <c r="W5" t="n">
-        <v>5.628972453295349</v>
+        <v>5.628972453295331</v>
       </c>
       <c r="X5" t="n">
-        <v>9.519215867733195</v>
+        <v>9.519215867733202</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.931607979770197</v>
+        <v>8.93160797977016</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.1448145964390649</v>
+        <v>0.1448145964389971</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.1470431800333462</v>
+        <v>0.1470431800331632</v>
       </c>
       <c r="AB5" t="n">
-        <v>4.66879503639309</v>
+        <v>4.668795036393204</v>
       </c>
       <c r="AC5" t="n">
-        <v>5.229700067905928</v>
+        <v>5.229700067905937</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.07985922347749047</v>
+        <v>0.07985922347786321</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.12443352693817</v>
+        <v>0.1244335269384225</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.3900144015781633</v>
+        <v>0.3900144015778476</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.9250845940247265</v>
+        <v>0.9250845940232955</v>
       </c>
       <c r="AH5" t="n">
-        <v>1.731873053802023</v>
+        <v>1.731873053802005</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.6342243566156044</v>
+        <v>0.63422435661552</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1.1428822939994</v>
+        <v>1.142882293999627</v>
       </c>
       <c r="AK5" t="n">
-        <v>1.232444649114515</v>
+        <v>1.232444649114501</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.8787526476322756</v>
+        <v>0.8787526476321956</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.8214334885313624</v>
+        <v>0.8214334885316654</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.08386849851556646</v>
+        <v>0.08386849851755494</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.08344876061304994</v>
+        <v>0.08344876061179467</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.07534665627167401</v>
+        <v>0.07534665626942252</v>
       </c>
     </row>
     <row r="6" spans="1:42">
@@ -1087,124 +1087,124 @@
         <v>16</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1656608827790464</v>
+        <v>0.1656608827793034</v>
       </c>
       <c r="D6" t="n">
-        <v>8.020416685966145</v>
+        <v>8.020416685966293</v>
       </c>
       <c r="E6" t="n">
-        <v>34.67960888960132</v>
+        <v>34.67960888960064</v>
       </c>
       <c r="F6" t="n">
-        <v>1.880905570124425</v>
+        <v>1.880905570124567</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3367464823793395</v>
+        <v>0.3367464823791358</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1358787905226566</v>
+        <v>0.135878790523585</v>
       </c>
       <c r="I6" t="n">
-        <v>2.256273875948234</v>
+        <v>2.256273875948887</v>
       </c>
       <c r="J6" t="n">
-        <v>2.877674972662237</v>
+        <v>2.877674972661582</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1497637991984213</v>
+        <v>0.1497637991974852</v>
       </c>
       <c r="L6" t="n">
-        <v>0.192803107658371</v>
+        <v>0.1928031076583043</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1416068291867135</v>
+        <v>0.141606829186983</v>
       </c>
       <c r="N6" t="n">
-        <v>0.146849379093875</v>
+        <v>0.1468493790951449</v>
       </c>
       <c r="O6" t="n">
-        <v>0.06462064975497639</v>
+        <v>0.06462064975557907</v>
       </c>
       <c r="P6" t="n">
-        <v>0.06956259144268892</v>
+        <v>0.06956259144301372</v>
       </c>
       <c r="Q6" t="n">
-        <v>7.586108822805318</v>
+        <v>7.58610882280543</v>
       </c>
       <c r="R6" t="n">
-        <v>11.19113883749333</v>
+        <v>11.19113883749298</v>
       </c>
       <c r="S6" t="n">
-        <v>0.9743775073221034</v>
+        <v>0.9743775073221557</v>
       </c>
       <c r="T6" t="n">
-        <v>0.3569149849166338</v>
+        <v>0.3569149849166396</v>
       </c>
       <c r="U6" t="n">
-        <v>0.3623207583422408</v>
+        <v>0.3623207583429609</v>
       </c>
       <c r="V6" t="n">
-        <v>0.489871859242466</v>
+        <v>0.4898718592422493</v>
       </c>
       <c r="W6" t="n">
-        <v>3.550930422770411</v>
+        <v>3.550930422770313</v>
       </c>
       <c r="X6" t="n">
-        <v>4.643766337818635</v>
+        <v>4.643766337820847</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.1009841220161246</v>
+        <v>0.1009841220162409</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.7336182489669405</v>
+        <v>0.7336182489669977</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.7027512328241509</v>
+        <v>0.7027512328241441</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.9134425513658739</v>
+        <v>0.913442551365899</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.5381409273568072</v>
+        <v>0.5381409273567445</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.6486985721227884</v>
+        <v>0.6486985721228831</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.9716708863297097</v>
+        <v>0.9716708863298811</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.449404768933245</v>
+        <v>1.449404768933111</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.5500066315370817</v>
+        <v>0.5500066315369407</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.471773494113694</v>
+        <v>0.4717734941136761</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.4584822910219185</v>
+        <v>0.4584822910221338</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.7590620631170701</v>
+        <v>0.7590620631171099</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.3216849722572954</v>
+        <v>0.32168497225736</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.6975747023727025</v>
+        <v>0.6975747023726319</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.9385980521267313</v>
+        <v>0.9385980521268366</v>
       </c>
       <c r="AN6" t="n">
-        <v>1.743303048754368</v>
+        <v>1.743303048754206</v>
       </c>
       <c r="AO6" t="n">
-        <v>1.30589066348551</v>
+        <v>1.305890663485553</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.2386599225504117</v>
+        <v>0.2386599225502375</v>
       </c>
     </row>
     <row r="7" spans="1:42">
@@ -1212,124 +1212,124 @@
         <v>17</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0887379601020289</v>
+        <v>0.08873796010251193</v>
       </c>
       <c r="D7" t="n">
-        <v>0.865328090755939</v>
+        <v>0.8653280907558997</v>
       </c>
       <c r="E7" t="n">
-        <v>2.385086166460944</v>
+        <v>2.385086166460898</v>
       </c>
       <c r="F7" t="n">
-        <v>1.504410299828578</v>
+        <v>1.504410299828587</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3103126399009491</v>
+        <v>0.3103126399006658</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5540654663747893</v>
+        <v>0.5540654663746299</v>
       </c>
       <c r="I7" t="n">
-        <v>0.142055946267055</v>
+        <v>0.1420559462670348</v>
       </c>
       <c r="J7" t="n">
-        <v>0.07764657353350729</v>
+        <v>0.07764657353405789</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1889527883675386</v>
+        <v>0.1889527883675584</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2051183078801623</v>
+        <v>0.2051183078803153</v>
       </c>
       <c r="M7" t="n">
-        <v>1.28640128033185</v>
+        <v>1.286401280331445</v>
       </c>
       <c r="N7" t="n">
-        <v>2.274756254235184</v>
+        <v>2.274756254234899</v>
       </c>
       <c r="O7" t="n">
-        <v>0.498832846022264</v>
+        <v>0.4988328460227018</v>
       </c>
       <c r="P7" t="n">
-        <v>0.2777707331124813</v>
+        <v>0.2777707331126199</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.4720917050286415</v>
+        <v>0.4720917050285246</v>
       </c>
       <c r="R7" t="n">
-        <v>0.3840548668808013</v>
+        <v>0.3840548668808283</v>
       </c>
       <c r="S7" t="n">
-        <v>0.4717659703354731</v>
+        <v>0.4717659703353486</v>
       </c>
       <c r="T7" t="n">
-        <v>0.213776249345687</v>
+        <v>0.2137762493462916</v>
       </c>
       <c r="U7" t="n">
-        <v>0.46081009233408</v>
+        <v>0.4608100923341559</v>
       </c>
       <c r="V7" t="n">
-        <v>1.917738551418511</v>
+        <v>1.917738551418697</v>
       </c>
       <c r="W7" t="n">
-        <v>1.990742692259154</v>
+        <v>1.99074269225912</v>
       </c>
       <c r="X7" t="n">
-        <v>1.335847200712966</v>
+        <v>1.335847200712755</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.2234377607011989</v>
+        <v>0.2234377607011417</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.5114567378915683</v>
+        <v>0.5114567378914645</v>
       </c>
       <c r="AA7" t="n">
-        <v>1.052072798258018</v>
+        <v>1.052072798258117</v>
       </c>
       <c r="AB7" t="n">
-        <v>1.40182497699363</v>
+        <v>1.401824976993108</v>
       </c>
       <c r="AC7" t="n">
-        <v>2.037194168118002</v>
+        <v>2.037194168117888</v>
       </c>
       <c r="AD7" t="n">
-        <v>2.770920853310855</v>
+        <v>2.770920853311209</v>
       </c>
       <c r="AE7" t="n">
-        <v>1.560915604451849</v>
+        <v>1.560915604451344</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.33365663723622</v>
+        <v>2.333656637236047</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.2202339745093812</v>
+        <v>0.2202339745094156</v>
       </c>
       <c r="AH7" t="n">
-        <v>1.399995991746228</v>
+        <v>1.399995991746273</v>
       </c>
       <c r="AI7" t="n">
-        <v>4.15871669822594</v>
+        <v>4.158716698226007</v>
       </c>
       <c r="AJ7" t="n">
-        <v>2.768105392053051</v>
+        <v>2.768105392052878</v>
       </c>
       <c r="AK7" t="n">
-        <v>1.516508112883741</v>
+        <v>1.516508112883795</v>
       </c>
       <c r="AL7" t="n">
-        <v>1.239773165484788</v>
+        <v>1.239773165484381</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.987643711137548</v>
+        <v>0.9876437111375279</v>
       </c>
       <c r="AN7" t="n">
-        <v>2.208537145989963</v>
+        <v>2.20853714598787</v>
       </c>
       <c r="AO7" t="n">
-        <v>2.600322058251415</v>
+        <v>2.600322058251363</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.417082750340293</v>
+        <v>1.417082750340141</v>
       </c>
     </row>
     <row r="8" spans="1:42">
@@ -1337,124 +1337,124 @@
         <v>18</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1110740609471891</v>
+        <v>0.1110740609471784</v>
       </c>
       <c r="D8" t="n">
-        <v>10.21664805424462</v>
+        <v>10.21664805424461</v>
       </c>
       <c r="E8" t="n">
-        <v>41.22490419337207</v>
+        <v>41.22490419337206</v>
       </c>
       <c r="F8" t="n">
-        <v>0.342344745450159</v>
+        <v>0.3423447454499135</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3305659836208193</v>
+        <v>0.3305659836205588</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2844211676993469</v>
+        <v>0.2844211677006659</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4144380049231757</v>
+        <v>0.4144380049224536</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2691643321486319</v>
+        <v>0.2691643321485206</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1500693008803002</v>
+        <v>0.1500693008803707</v>
       </c>
       <c r="L8" t="n">
-        <v>0.195308907788062</v>
+        <v>0.1953089077865515</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2534905965226397</v>
+        <v>0.2534905965231798</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1396024198040848</v>
+        <v>0.1396024198046835</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1776797897051869</v>
+        <v>0.1776797897058601</v>
       </c>
       <c r="P8" t="n">
-        <v>0.9389663844902534</v>
+        <v>0.9389663844900892</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.483037232539755</v>
+        <v>1.483037232540096</v>
       </c>
       <c r="R8" t="n">
-        <v>1.171907864313519</v>
+        <v>1.171907864313983</v>
       </c>
       <c r="S8" t="n">
-        <v>1.082337644420685</v>
+        <v>1.082337644420888</v>
       </c>
       <c r="T8" t="n">
-        <v>1.696753064390559</v>
+        <v>1.696753064390542</v>
       </c>
       <c r="U8" t="n">
-        <v>2.094869113300957</v>
+        <v>2.094869113300966</v>
       </c>
       <c r="V8" t="n">
-        <v>0.2896379949258652</v>
+        <v>0.2896379949257835</v>
       </c>
       <c r="W8" t="n">
-        <v>1.98803387848858</v>
+        <v>1.988033878488554</v>
       </c>
       <c r="X8" t="n">
-        <v>15.31689556637676</v>
+        <v>15.31689556637649</v>
       </c>
       <c r="Y8" t="n">
-        <v>9.57073293572039</v>
+        <v>9.570732935720351</v>
       </c>
       <c r="Z8" t="n">
-        <v>1.725723168822806</v>
+        <v>1.725723168823064</v>
       </c>
       <c r="AA8" t="n">
-        <v>1.67963774476115</v>
+        <v>1.679637744761183</v>
       </c>
       <c r="AB8" t="n">
-        <v>2.119046953011033</v>
+        <v>2.119046953010412</v>
       </c>
       <c r="AC8" t="n">
-        <v>1.747939129361482</v>
+        <v>1.747939129361426</v>
       </c>
       <c r="AD8" t="n">
-        <v>8.642980778194367</v>
+        <v>8.642980778194353</v>
       </c>
       <c r="AE8" t="n">
-        <v>9.302157680595126</v>
+        <v>9.302157680595027</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.481607687852371</v>
+        <v>5.481607687852438</v>
       </c>
       <c r="AG8" t="n">
-        <v>5.224686345974566</v>
+        <v>5.224686345975043</v>
       </c>
       <c r="AH8" t="n">
-        <v>2.9782631113447</v>
+        <v>2.978263111345787</v>
       </c>
       <c r="AI8" t="n">
-        <v>4.239794607040177</v>
+        <v>4.239794607039364</v>
       </c>
       <c r="AJ8" t="n">
-        <v>4.163017578997247</v>
+        <v>4.163017578995861</v>
       </c>
       <c r="AK8" t="n">
-        <v>1.86208608709235</v>
+        <v>1.862086087091597</v>
       </c>
       <c r="AL8" t="n">
-        <v>3.435251324687363</v>
+        <v>3.435251324687913</v>
       </c>
       <c r="AM8" t="n">
-        <v>2.70766511580186</v>
+        <v>2.70766511580198</v>
       </c>
       <c r="AN8" t="n">
-        <v>3.09941564839148</v>
+        <v>3.099415648391293</v>
       </c>
       <c r="AO8" t="n">
-        <v>2.245453146307128</v>
+        <v>2.245453146307029</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.561984388715737</v>
+        <v>1.561984388715957</v>
       </c>
     </row>
     <row r="9" spans="1:42">
@@ -1462,124 +1462,124 @@
         <v>19</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05867639872744893</v>
+        <v>0.0586763987272196</v>
       </c>
       <c r="D9" t="n">
-        <v>0.73930996611178</v>
+        <v>0.7393099661118635</v>
       </c>
       <c r="E9" t="n">
-        <v>1.1709335582907</v>
+        <v>1.170933558291889</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4597169474499745</v>
+        <v>0.4597169474500964</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1526060846046427</v>
+        <v>0.1526060846046001</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1777970925507208</v>
+        <v>0.1777970925506496</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1802463641767597</v>
+        <v>0.1802463641772044</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1875341468010219</v>
+        <v>0.1875341468010859</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1537197419165294</v>
+        <v>0.1537197419165231</v>
       </c>
       <c r="L9" t="n">
-        <v>0.09434249827773643</v>
+        <v>0.0943424982770219</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1904592995481395</v>
+        <v>0.1904592995471106</v>
       </c>
       <c r="N9" t="n">
-        <v>0.2200089579304567</v>
+        <v>0.2200089579309909</v>
       </c>
       <c r="O9" t="n">
-        <v>0.08751811243611071</v>
+        <v>0.08751811243586061</v>
       </c>
       <c r="P9" t="n">
-        <v>0.08659802226591141</v>
+        <v>0.0865980222650979</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.2030643921064609</v>
+        <v>0.203064392105987</v>
       </c>
       <c r="R9" t="n">
-        <v>0.2081824379357274</v>
+        <v>0.2081824379354723</v>
       </c>
       <c r="S9" t="n">
-        <v>0.7026323623023735</v>
+        <v>0.7026323623026397</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1948355454220493</v>
+        <v>0.1948355454221501</v>
       </c>
       <c r="U9" t="n">
-        <v>0.3199065655175793</v>
+        <v>0.3199065655174086</v>
       </c>
       <c r="V9" t="n">
-        <v>0.1939061237562276</v>
+        <v>0.1939061237565273</v>
       </c>
       <c r="W9" t="n">
-        <v>0.3738498818227953</v>
+        <v>0.3738498818227912</v>
       </c>
       <c r="X9" t="n">
-        <v>0.4028780596947703</v>
+        <v>0.4028780596948984</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.1534324237430478</v>
+        <v>0.1534324237435876</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.3569431184998089</v>
+        <v>0.3569431184996376</v>
       </c>
       <c r="AA9" t="n">
         <v>1.349333647822489</v>
       </c>
       <c r="AB9" t="n">
-        <v>1.413970528643925</v>
+        <v>1.413970528643996</v>
       </c>
       <c r="AC9" t="n">
-        <v>1.006107812801959</v>
+        <v>1.006107812801964</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.2403548375846302</v>
+        <v>0.2403548375847682</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.1874100839501371</v>
+        <v>0.1874100839502067</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.1643286228332347</v>
+        <v>0.1643286228333013</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.8044537691695826</v>
+        <v>0.8044537691695137</v>
       </c>
       <c r="AH9" t="n">
-        <v>1.493544928880723</v>
+        <v>1.493544928880762</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.4673254159411017</v>
+        <v>0.467325415940944</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.07851455693940083</v>
+        <v>0.07851455693942913</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.1374262593803775</v>
+        <v>0.1374262593807419</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.3402360007364337</v>
+        <v>0.3402360007371176</v>
       </c>
       <c r="AM9" t="n">
-        <v>0.2044764218408859</v>
+        <v>0.2044764218409039</v>
       </c>
       <c r="AN9" t="n">
-        <v>0.2595588359472635</v>
+        <v>0.2595588359472098</v>
       </c>
       <c r="AO9" t="n">
-        <v>0.4555384718713766</v>
+        <v>0.4555384718713725</v>
       </c>
       <c r="AP9" t="n">
-        <v>3.050937095058869</v>
+        <v>3.050937095059064</v>
       </c>
     </row>
     <row r="10" spans="1:42">
@@ -1587,124 +1587,124 @@
         <v>20</v>
       </c>
       <c r="C10" t="n">
-        <v>0.09825227577033248</v>
+        <v>0.09825227577047828</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4462690155871117</v>
+        <v>0.4462690155870309</v>
       </c>
       <c r="E10" t="n">
-        <v>2.586191370582559</v>
+        <v>2.586191370582501</v>
       </c>
       <c r="F10" t="n">
-        <v>3.289913982706186</v>
+        <v>3.289913982706533</v>
       </c>
       <c r="G10" t="n">
-        <v>3.334154468902416</v>
+        <v>3.334154468902826</v>
       </c>
       <c r="H10" t="n">
-        <v>2.69478240206213</v>
+        <v>2.694782402062477</v>
       </c>
       <c r="I10" t="n">
-        <v>1.749256160402969</v>
+        <v>1.74925616040181</v>
       </c>
       <c r="J10" t="n">
-        <v>0.8125342881520058</v>
+        <v>0.8125342881517199</v>
       </c>
       <c r="K10" t="n">
-        <v>0.8480488746453552</v>
+        <v>0.8480488746454391</v>
       </c>
       <c r="L10" t="n">
-        <v>1.065466168773631</v>
+        <v>1.065466168773891</v>
       </c>
       <c r="M10" t="n">
-        <v>1.18933145270801</v>
+        <v>1.18933145270791</v>
       </c>
       <c r="N10" t="n">
-        <v>0.2487291444235772</v>
+        <v>0.2487291444245398</v>
       </c>
       <c r="O10" t="n">
-        <v>5.695986871350436</v>
+        <v>5.695986871350833</v>
       </c>
       <c r="P10" t="n">
-        <v>9.00997694871506</v>
+        <v>9.009976948715257</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.2190995661495602</v>
+        <v>0.2190995661488843</v>
       </c>
       <c r="R10" t="n">
-        <v>0.2117315957460341</v>
+        <v>0.211731595746012</v>
       </c>
       <c r="S10" t="n">
-        <v>0.1711683608288039</v>
+        <v>0.1711683608290767</v>
       </c>
       <c r="T10" t="n">
-        <v>0.2295292084388364</v>
+        <v>0.2295292084382558</v>
       </c>
       <c r="U10" t="n">
-        <v>0.564817423219388</v>
+        <v>0.5648174232185706</v>
       </c>
       <c r="V10" t="n">
-        <v>0.764641008046402</v>
+        <v>0.7646410080471406</v>
       </c>
       <c r="W10" t="n">
-        <v>0.8512855630737615</v>
+        <v>0.851285563073458</v>
       </c>
       <c r="X10" t="n">
-        <v>0.7467933298879751</v>
+        <v>0.7467933298876613</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.6969169914221415</v>
+        <v>0.6969169914216898</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.8685430136744082</v>
+        <v>0.8685430136744167</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.9565985255644885</v>
+        <v>0.956598525564478</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.5316117956438301</v>
+        <v>0.5316117956439392</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.6983387688899338</v>
+        <v>0.698338768889926</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.3159086646584518</v>
+        <v>0.3159086646584203</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.6446258786964558</v>
+        <v>0.6446258786964245</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.8049281709123629</v>
+        <v>0.8049281709123257</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.9659791257186501</v>
+        <v>0.9659791257187487</v>
       </c>
       <c r="AH10" t="n">
-        <v>2.037131359977866</v>
+        <v>2.037131359977787</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.4748689763931163</v>
+        <v>0.4748689763931425</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1.483782194010999</v>
+        <v>1.483782194011453</v>
       </c>
       <c r="AK10" t="n">
-        <v>1.411967262668901</v>
+        <v>1.411967262669235</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.7057644931348382</v>
+        <v>0.7057644931350744</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.4036408120160941</v>
+        <v>0.4036408120160881</v>
       </c>
       <c r="AN10" t="n">
-        <v>0.5604065684997832</v>
+        <v>0.5604065684996745</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.5864983610864215</v>
+        <v>0.5864983610864317</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.8269363736035543</v>
+        <v>0.8269363736033868</v>
       </c>
     </row>
     <row r="11" spans="1:42">
@@ -1712,124 +1712,124 @@
         <v>21</v>
       </c>
       <c r="C11" t="n">
-        <v>0.348113479478363</v>
+        <v>0.3481134794783874</v>
       </c>
       <c r="D11" t="n">
-        <v>1.140392628035626</v>
+        <v>1.140392628035687</v>
       </c>
       <c r="E11" t="n">
-        <v>2.507166497488333</v>
+        <v>2.507166497488629</v>
       </c>
       <c r="F11" t="n">
-        <v>8.694620004891759</v>
+        <v>8.694620004891936</v>
       </c>
       <c r="G11" t="n">
-        <v>4.209129818971772</v>
+        <v>4.209129818971785</v>
       </c>
       <c r="H11" t="n">
-        <v>1.133837759227328</v>
+        <v>1.13383775922745</v>
       </c>
       <c r="I11" t="n">
-        <v>0.287825130983687</v>
+        <v>0.2878251309834199</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2506189066661688</v>
+        <v>0.2506189066661249</v>
       </c>
       <c r="K11" t="n">
-        <v>0.4238264694654855</v>
+        <v>0.4238264694655748</v>
       </c>
       <c r="L11" t="n">
-        <v>0.5099119968736149</v>
+        <v>0.5099119968735637</v>
       </c>
       <c r="M11" t="n">
-        <v>0.648517950904652</v>
+        <v>0.6485179509045549</v>
       </c>
       <c r="N11" t="n">
-        <v>0.4102736771344113</v>
+        <v>0.4102736771339928</v>
       </c>
       <c r="O11" t="n">
-        <v>0.5534846378272451</v>
+        <v>0.5534846378275975</v>
       </c>
       <c r="P11" t="n">
-        <v>0.3846355151702274</v>
+        <v>0.3846355151702182</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.3108440493904269</v>
+        <v>0.3108440493904593</v>
       </c>
       <c r="R11" t="n">
-        <v>3.282811693560713</v>
+        <v>3.282811693560751</v>
       </c>
       <c r="S11" t="n">
-        <v>13.51704724654661</v>
+        <v>13.51704724654698</v>
       </c>
       <c r="T11" t="n">
-        <v>0.3153457929103394</v>
+        <v>0.3153457929101164</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4695689151415324</v>
+        <v>0.4695689151412465</v>
       </c>
       <c r="V11" t="n">
-        <v>0.3817829708333627</v>
+        <v>0.3817829708331706</v>
       </c>
       <c r="W11" t="n">
-        <v>2.091707689231222</v>
+        <v>2.091707689230902</v>
       </c>
       <c r="X11" t="n">
-        <v>2.821877047651727</v>
+        <v>2.821877047652068</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.8656750530958732</v>
+        <v>0.865675053096038</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.2380860810999796</v>
+        <v>0.2380860810996016</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.2264299482807771</v>
+        <v>0.2264299482808391</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.5623891450508056</v>
+        <v>0.5623891450514475</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.5232461898022727</v>
+        <v>0.5232461898027237</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.4611548327137648</v>
+        <v>0.4611548327137965</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.4409421244137804</v>
+        <v>0.4409421244138847</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.9933721978043814</v>
+        <v>0.9933721978043603</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.9485916715340436</v>
+        <v>0.9485916715339985</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.3027913282496404</v>
+        <v>0.3027913282498564</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.6238220642328746</v>
+        <v>0.6238220642330611</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.9843916099287874</v>
+        <v>0.9843916099286828</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.3406118482756084</v>
+        <v>0.3406118482754797</v>
       </c>
       <c r="AL11" t="n">
-        <v>1.840117034792338</v>
+        <v>1.84011703479235</v>
       </c>
       <c r="AM11" t="n">
-        <v>2.381834593248131</v>
+        <v>2.381834593248082</v>
       </c>
       <c r="AN11" t="n">
-        <v>5.610377953042109</v>
+        <v>5.610377953042144</v>
       </c>
       <c r="AO11" t="n">
-        <v>3.382453287995483</v>
+        <v>3.382453287995486</v>
       </c>
       <c r="AP11" t="n">
-        <v>8.447787432437659</v>
+        <v>8.447787432438105</v>
       </c>
     </row>
   </sheetData>
@@ -2062,7 +2062,7 @@
         <v>8.402430591615696</v>
       </c>
       <c r="AD2" t="n">
-        <v>7.303526679115819</v>
+        <v>7.292831491950044</v>
       </c>
       <c r="AE2" t="n">
         <v>6.493202247392043</v>
@@ -2169,7 +2169,7 @@
         <v>4.465841199487176</v>
       </c>
       <c r="X3" t="n">
-        <v>4.476987035786531</v>
+        <v>4.490870268380519</v>
       </c>
       <c r="Y3" t="n">
         <v>8.107585076958205</v>
@@ -2190,7 +2190,7 @@
         <v>6.397790206344422</v>
       </c>
       <c r="AE3" t="n">
-        <v>6.126626408705996</v>
+        <v>6.136939667204388</v>
       </c>
       <c r="AF3" t="n">
         <v>6.976213966874609</v>
@@ -2416,7 +2416,7 @@
         <v>6.278464292480902</v>
       </c>
       <c r="W5" t="n">
-        <v>2.360810412547024</v>
+        <v>2.407709971905952</v>
       </c>
       <c r="X5" t="n">
         <v>3.764716990277162</v>
@@ -2490,7 +2490,7 @@
         <v>0.7786132610231421</v>
       </c>
       <c r="F6" t="n">
-        <v>4.095992397505913</v>
+        <v>4.106745085677956</v>
       </c>
       <c r="G6" t="n">
         <v>7.253799527707908</v>
@@ -2720,7 +2720,7 @@
         <v>2.645848866971269</v>
       </c>
       <c r="AO7" t="n">
-        <v>5.497517772501536</v>
+        <v>5.494623416495746</v>
       </c>
       <c r="AP7" t="n">
         <v>5.387503989285511</v>
@@ -3005,7 +3005,7 @@
         <v>6.542081841897271</v>
       </c>
       <c r="K10" t="n">
-        <v>7.096889766141221</v>
+        <v>7.105585418315133</v>
       </c>
       <c r="L10" t="n">
         <v>6.242723850958239</v>
@@ -3074,7 +3074,7 @@
         <v>5.957436229472135</v>
       </c>
       <c r="AH10" t="n">
-        <v>5.981004258821865</v>
+        <v>5.962822440640047</v>
       </c>
       <c r="AI10" t="n">
         <v>6.890255921368265</v>
@@ -3118,7 +3118,7 @@
         <v>5.461667772609125</v>
       </c>
       <c r="G11" t="n">
-        <v>5.742397274613833</v>
+        <v>5.754161980496186</v>
       </c>
       <c r="H11" t="n">
         <v>7.763668560152623</v>
@@ -3214,7 +3214,7 @@
         <v>5.480190072155977</v>
       </c>
       <c r="AM11" t="n">
-        <v>3.431834165220743</v>
+        <v>3.435008768395345</v>
       </c>
       <c r="AN11" t="n">
         <v>4.959076176504269</v>
@@ -3375,124 +3375,124 @@
         <v>12</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7523364523873328</v>
+        <v>0.7523364523870333</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6348958418238937</v>
+        <v>0.6348958418281964</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5729113691836892</v>
+        <v>0.5729113691836895</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5789893118803108</v>
+        <v>0.578989311880326</v>
       </c>
       <c r="G2" t="n">
-        <v>0.679868068656254</v>
+        <v>0.6798680686552104</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7155129696620965</v>
+        <v>0.7155129696621376</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6673846366611252</v>
+        <v>0.6673846366643139</v>
       </c>
       <c r="J2" t="n">
-        <v>0.5836634363960184</v>
+        <v>0.583663436398817</v>
       </c>
       <c r="K2" t="n">
-        <v>0.664379396379674</v>
+        <v>0.6643793963754387</v>
       </c>
       <c r="L2" t="n">
-        <v>0.6707168821750472</v>
+        <v>0.6707168821736346</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7142422462284277</v>
+        <v>0.7142422462272592</v>
       </c>
       <c r="N2" t="n">
-        <v>0.6628586671057473</v>
+        <v>0.6628586671067476</v>
       </c>
       <c r="O2" t="n">
-        <v>0.6799965360378983</v>
+        <v>0.6799965360394281</v>
       </c>
       <c r="P2" t="n">
-        <v>0.6506734067708292</v>
+        <v>0.650673406769591</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.5780779239560063</v>
+        <v>0.5780779239560011</v>
       </c>
       <c r="R2" t="n">
-        <v>0.5740915047475222</v>
+        <v>0.5740915047475221</v>
       </c>
       <c r="S2" t="n">
-        <v>0.7075064055470047</v>
+        <v>0.707506405547436</v>
       </c>
       <c r="T2" t="n">
-        <v>0.6139243969683104</v>
+        <v>0.6139243969715619</v>
       </c>
       <c r="U2" t="n">
-        <v>0.6652567948739571</v>
+        <v>0.6652567948744808</v>
       </c>
       <c r="V2" t="n">
-        <v>0.5741689346405578</v>
+        <v>0.5741689346405563</v>
       </c>
       <c r="W2" t="n">
-        <v>0.6438420806947993</v>
+        <v>0.6438420806943994</v>
       </c>
       <c r="X2" t="n">
-        <v>0.571458609787957</v>
+        <v>0.5714586097879575</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.5690954760103976</v>
+        <v>0.5690954760103912</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.7308388284649314</v>
+        <v>0.7308388284653747</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.5847565045889676</v>
+        <v>0.5847565045889574</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.6271956496146754</v>
+        <v>0.6271956496136935</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.5624976122061343</v>
+        <v>0.5624976122059672</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.6730080479544928</v>
+        <v>0.673008047954092</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.5634490991286545</v>
+        <v>0.5634490991286503</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.5719914021684428</v>
+        <v>0.5719914021684112</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.6752501825651571</v>
+        <v>0.6752501825655811</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.6374730087930222</v>
+        <v>0.6374730087927447</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.5629303600712756</v>
+        <v>0.5629303600713513</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.6006273932502793</v>
+        <v>0.6006273932532059</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.7408217588032583</v>
+        <v>0.7408217588034127</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.682725354005053</v>
+        <v>0.6827253540050506</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.7449812322005105</v>
+        <v>0.7449812322017758</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.7001739337229057</v>
+        <v>0.7001739337248586</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.5670087144267106</v>
+        <v>0.5670087144265564</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.6966402425390282</v>
+        <v>0.6966402425388351</v>
       </c>
     </row>
     <row r="3" spans="1:42">
@@ -3500,124 +3500,124 @@
         <v>13</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7309227293725833</v>
+        <v>0.7309227293718019</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7127358761552858</v>
+        <v>0.7127358761551724</v>
       </c>
       <c r="E3" t="n">
         <v>0.5775018694898625</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6555871178200041</v>
+        <v>0.655587117821482</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5999203361077305</v>
+        <v>0.5999203361078803</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6140325788378445</v>
+        <v>0.6140325788382168</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5826852875886835</v>
+        <v>0.5826852875885185</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5985085238828751</v>
+        <v>0.5985085238819381</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5797715136105767</v>
+        <v>0.5797715136106799</v>
       </c>
       <c r="L3" t="n">
-        <v>0.6672449245471898</v>
+        <v>0.6672449245489039</v>
       </c>
       <c r="M3" t="n">
-        <v>0.6141815374509063</v>
+        <v>0.6141815374514367</v>
       </c>
       <c r="N3" t="n">
-        <v>0.6491932256046039</v>
+        <v>0.6491932256046391</v>
       </c>
       <c r="O3" t="n">
-        <v>0.7181200927500254</v>
+        <v>0.7181200927506072</v>
       </c>
       <c r="P3" t="n">
-        <v>0.5743134141633405</v>
+        <v>0.5743134141633628</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.5965864492118271</v>
+        <v>0.5965864492121217</v>
       </c>
       <c r="R3" t="n">
-        <v>0.5724697616162358</v>
+        <v>0.5724697616162362</v>
       </c>
       <c r="S3" t="n">
-        <v>0.6072222178052541</v>
+        <v>0.6072222178052769</v>
       </c>
       <c r="T3" t="n">
-        <v>0.5801984795108182</v>
+        <v>0.5801984795108107</v>
       </c>
       <c r="U3" t="n">
-        <v>0.5743806563022051</v>
+        <v>0.5743806563022077</v>
       </c>
       <c r="V3" t="n">
-        <v>0.5818450448991082</v>
+        <v>0.5818450448991095</v>
       </c>
       <c r="W3" t="n">
-        <v>0.6136159381475391</v>
+        <v>0.613615938147639</v>
       </c>
       <c r="X3" t="n">
-        <v>0.5696252632295212</v>
+        <v>0.5696252632295222</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.7413552094162189</v>
+        <v>0.7413552094160382</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.5740478874483997</v>
+        <v>0.574047887448402</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.5679147930638284</v>
+        <v>0.567914793063682</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.5800018302003556</v>
+        <v>0.5800018302003578</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.5809351328180458</v>
+        <v>0.5809351328180623</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.5786762770694104</v>
+        <v>0.5786762770694289</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.5663654672099238</v>
+        <v>0.5663654672099243</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.5826488555965542</v>
+        <v>0.5826488555977334</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.5724048499481805</v>
+        <v>0.572404849949681</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.5787674193190855</v>
+        <v>0.5787674193190105</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.6621620638568596</v>
+        <v>0.6621620638523009</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.6058076556266428</v>
+        <v>0.6058076556284488</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.6286164755898409</v>
+        <v>0.628616475587939</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.5800045830839768</v>
+        <v>0.5800045830839753</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.5756849801746624</v>
+        <v>0.5756849801747532</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.7428772573926652</v>
+        <v>0.7428772573926854</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.6011694156720189</v>
+        <v>0.6011694156720265</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.67605035097833</v>
+        <v>0.6760503509782425</v>
       </c>
     </row>
     <row r="4" spans="1:42">
@@ -3625,124 +3625,124 @@
         <v>14</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6699963882517233</v>
+        <v>0.6699963882536653</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6160042807225593</v>
+        <v>0.6160042807224214</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5800558198987101</v>
+        <v>0.58005581989871</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5744154787721725</v>
+        <v>0.5744154787720822</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5853153581234662</v>
+        <v>0.5853153581303842</v>
       </c>
       <c r="H4" t="n">
-        <v>0.579370468327156</v>
+        <v>0.5793704683272713</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5727738013497462</v>
+        <v>0.572773801351644</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6825235214489478</v>
+        <v>0.6825235214503989</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5800118070831786</v>
+        <v>0.5800118070831891</v>
       </c>
       <c r="L4" t="n">
-        <v>0.6401029464944744</v>
+        <v>0.6401029464931306</v>
       </c>
       <c r="M4" t="n">
-        <v>0.5852735199633567</v>
+        <v>0.5852735199633664</v>
       </c>
       <c r="N4" t="n">
-        <v>0.5854241085434538</v>
+        <v>0.5854241085435393</v>
       </c>
       <c r="O4" t="n">
-        <v>0.7033791080673115</v>
+        <v>0.7033791080625797</v>
       </c>
       <c r="P4" t="n">
-        <v>0.6004060885267554</v>
+        <v>0.600406088526634</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.6046506864414158</v>
+        <v>0.6046506864440809</v>
       </c>
       <c r="R4" t="n">
-        <v>0.6606516200509295</v>
+        <v>0.6606516200510131</v>
       </c>
       <c r="S4" t="n">
-        <v>0.5823934264050056</v>
+        <v>0.5823934264050051</v>
       </c>
       <c r="T4" t="n">
-        <v>0.5834581755132531</v>
+        <v>0.5834581755132519</v>
       </c>
       <c r="U4" t="n">
-        <v>0.5820920662459678</v>
+        <v>0.5820920662461252</v>
       </c>
       <c r="V4" t="n">
-        <v>0.5835319038411796</v>
+        <v>0.5835319038418576</v>
       </c>
       <c r="W4" t="n">
-        <v>0.6444073623612272</v>
+        <v>0.6444073623643592</v>
       </c>
       <c r="X4" t="n">
-        <v>0.5753122328512572</v>
+        <v>0.5753122328512705</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.5942856810668096</v>
+        <v>0.5942856810675069</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.6120231385191516</v>
+        <v>0.6120231385204442</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.5743355609961402</v>
+        <v>0.5743355609961366</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.6148899369782327</v>
+        <v>0.6148899369783178</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.6673379619705786</v>
+        <v>0.6673379619705122</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.5864663066273507</v>
+        <v>0.5864663066273806</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.5667184467004355</v>
+        <v>0.5667184467004586</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.6073305792353628</v>
+        <v>0.6073305792353051</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.5708230097779085</v>
+        <v>0.5708230097778983</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.5901805525834833</v>
+        <v>0.5901805525834478</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.5627842118496145</v>
+        <v>0.5627842118496174</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.5790978610903135</v>
+        <v>0.5790978610904602</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.5748106203037623</v>
+        <v>0.5748106203037587</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.5726330874851161</v>
+        <v>0.572633087483741</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.5709578117253766</v>
+        <v>0.5709578117254507</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.5960825589030225</v>
+        <v>0.5960825589029546</v>
       </c>
       <c r="AO4" t="n">
         <v>0.5600347777080621</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.574688556896217</v>
+        <v>0.5746885568962167</v>
       </c>
     </row>
     <row r="5" spans="1:42">
@@ -3750,124 +3750,124 @@
         <v>15</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6990861628683733</v>
+        <v>0.6990861628680096</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7876638903858106</v>
+        <v>0.7876638903859371</v>
       </c>
       <c r="E5" t="n">
-        <v>0.587595811850677</v>
+        <v>0.5875958118506772</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5812455756706277</v>
+        <v>0.5812455756706281</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6799649253572243</v>
+        <v>0.679964925356108</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7243957098572128</v>
+        <v>0.724395709856697</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5843845876258245</v>
+        <v>0.5843845876258441</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5852515330765614</v>
+        <v>0.5852515330765407</v>
       </c>
       <c r="K5" t="n">
-        <v>0.6412966638478714</v>
+        <v>0.6412966638513604</v>
       </c>
       <c r="L5" t="n">
-        <v>0.582417030908321</v>
+        <v>0.5824170309083483</v>
       </c>
       <c r="M5" t="n">
-        <v>0.6503977538740586</v>
+        <v>0.6503977538627552</v>
       </c>
       <c r="N5" t="n">
-        <v>0.6131289526376251</v>
+        <v>0.6131289526309839</v>
       </c>
       <c r="O5" t="n">
-        <v>0.6935930584967867</v>
+        <v>0.6935930584899573</v>
       </c>
       <c r="P5" t="n">
-        <v>0.6412953550346212</v>
+        <v>0.641295355035355</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.6315760245398448</v>
+        <v>0.6315760245436</v>
       </c>
       <c r="R5" t="n">
-        <v>0.5823727010791128</v>
+        <v>0.5823727010790989</v>
       </c>
       <c r="S5" t="n">
-        <v>0.582491779556318</v>
+        <v>0.5824917795549106</v>
       </c>
       <c r="T5" t="n">
-        <v>0.5992382728335006</v>
+        <v>0.5992382728341585</v>
       </c>
       <c r="U5" t="n">
-        <v>0.613228744037462</v>
+        <v>0.613228744039359</v>
       </c>
       <c r="V5" t="n">
-        <v>0.5830655990557042</v>
+        <v>0.5830655990556778</v>
       </c>
       <c r="W5" t="n">
-        <v>0.6849046177567325</v>
+        <v>0.6849046177416577</v>
       </c>
       <c r="X5" t="n">
         <v>0.5772185948299601</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.574642920068178</v>
+        <v>0.5746429200681782</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.6793602892793457</v>
+        <v>0.6793602892734755</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.5734078240801663</v>
+        <v>0.5734078240802537</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.5834018366877599</v>
+        <v>0.5834018366873178</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.5736388077231682</v>
+        <v>0.5736388077231679</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.5857461267673983</v>
+        <v>0.5857461267699884</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.7316675849083292</v>
+        <v>0.7316675849075707</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.7105660639862101</v>
+        <v>0.7105660639863959</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.5666590809879575</v>
+        <v>0.5666590809879603</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.5849722199023913</v>
+        <v>0.5849722199023973</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.5913746648813771</v>
+        <v>0.5913746648813549</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.6220580318260777</v>
+        <v>0.6220580318264879</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.5656713546855386</v>
+        <v>0.5656713546855381</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.6361899613434733</v>
+        <v>0.6361899613472908</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.5636681609580775</v>
+        <v>0.56366816095809</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.5727568018624315</v>
+        <v>0.572756801864111</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.6073769786996387</v>
+        <v>0.6073769786932658</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.5685429944551613</v>
+        <v>0.5685429944538278</v>
       </c>
     </row>
     <row r="6" spans="1:42">
@@ -3875,124 +3875,124 @@
         <v>16</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7223913585210984</v>
+        <v>0.7223913585209947</v>
       </c>
       <c r="D6" t="n">
-        <v>0.771251344246655</v>
+        <v>0.7712513442463548</v>
       </c>
       <c r="E6" t="n">
         <v>0.5757954671632604</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5735895790284855</v>
+        <v>0.5735895790284854</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5753277566647977</v>
+        <v>0.5753277566646247</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5749684502079416</v>
+        <v>0.5749684502080088</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6103416312484873</v>
+        <v>0.6103416312534227</v>
       </c>
       <c r="J6" t="n">
         <v>0.5798314495912805</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5808125438159552</v>
+        <v>0.5808125438170252</v>
       </c>
       <c r="L6" t="n">
-        <v>0.5744327876144326</v>
+        <v>0.5744327876142906</v>
       </c>
       <c r="M6" t="n">
-        <v>0.5932627392307597</v>
+        <v>0.5932627392313298</v>
       </c>
       <c r="N6" t="n">
-        <v>0.579451572551877</v>
+        <v>0.5794515725519273</v>
       </c>
       <c r="O6" t="n">
-        <v>0.5867404475686946</v>
+        <v>0.5867404475682336</v>
       </c>
       <c r="P6" t="n">
-        <v>0.6262126754435202</v>
+        <v>0.6262126754381732</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.6751579753207683</v>
+        <v>0.6751579753197252</v>
       </c>
       <c r="R6" t="n">
-        <v>0.5758738132596976</v>
+        <v>0.5758738132596974</v>
       </c>
       <c r="S6" t="n">
-        <v>0.6153814197938304</v>
+        <v>0.6153814197937915</v>
       </c>
       <c r="T6" t="n">
-        <v>0.5428704581160713</v>
+        <v>0.5428704581157529</v>
       </c>
       <c r="U6" t="n">
-        <v>0.6386028683349828</v>
+        <v>0.6386028683358673</v>
       </c>
       <c r="V6" t="n">
-        <v>0.6691275530246131</v>
+        <v>0.6691275530232866</v>
       </c>
       <c r="W6" t="n">
-        <v>0.5760096985476447</v>
+        <v>0.5760096985476272</v>
       </c>
       <c r="X6" t="n">
-        <v>0.5779715240319232</v>
+        <v>0.577971524031923</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.7278946773249665</v>
+        <v>0.7278946773259857</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.7043895742435511</v>
+        <v>0.7043895742432547</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.5858112490964309</v>
+        <v>0.5858112490964815</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.6913834835050479</v>
+        <v>0.6913834835050631</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.7005826728583054</v>
+        <v>0.7005826728583541</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.7584347522135243</v>
+        <v>0.7584347522135534</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.5647124206364486</v>
+        <v>0.5647124206364504</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.5770767891019971</v>
+        <v>0.5770767891019988</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.5622297480753081</v>
+        <v>0.5622297480753211</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.5759198786029346</v>
+        <v>0.5759198786029415</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.698969098206737</v>
+        <v>0.6989690982072967</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.5785549693612196</v>
+        <v>0.5785549693612211</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.5751168413862788</v>
+        <v>0.5751168413862775</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.6343430050238912</v>
+        <v>0.6343430050229627</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.5673839096911566</v>
+        <v>0.567383909691159</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.5800570092541195</v>
+        <v>0.58005700925412</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.5762830446216818</v>
+        <v>0.5762830446216095</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.666651525479996</v>
+        <v>0.6666515254801666</v>
       </c>
     </row>
     <row r="7" spans="1:42">
@@ -4000,124 +4000,124 @@
         <v>17</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6145740557273047</v>
+        <v>0.6145740557309627</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6888235407771184</v>
+        <v>0.6888235407768881</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5923993938852982</v>
+        <v>0.5923993938853007</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5641270217299196</v>
+        <v>0.5641270217299197</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6057459127526424</v>
+        <v>0.6057459127517679</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6585392568884678</v>
+        <v>0.658539256888552</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5803734935225517</v>
+        <v>0.580373493522206</v>
       </c>
       <c r="J7" t="n">
-        <v>0.6501082373576601</v>
+        <v>0.6501082373604764</v>
       </c>
       <c r="K7" t="n">
-        <v>0.6535924345664355</v>
+        <v>0.6535924345693219</v>
       </c>
       <c r="L7" t="n">
-        <v>0.5759385102134259</v>
+        <v>0.5759385102134638</v>
       </c>
       <c r="M7" t="n">
-        <v>0.6217204346564552</v>
+        <v>0.6217204346585323</v>
       </c>
       <c r="N7" t="n">
-        <v>0.6166437401124711</v>
+        <v>0.6166437401124617</v>
       </c>
       <c r="O7" t="n">
-        <v>0.7865511785030586</v>
+        <v>0.7865511785029131</v>
       </c>
       <c r="P7" t="n">
-        <v>0.5988197299887396</v>
+        <v>0.5988197299799967</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.7637209915359556</v>
+        <v>0.763720991535937</v>
       </c>
       <c r="R7" t="n">
-        <v>0.5821859944740581</v>
+        <v>0.5821859944745206</v>
       </c>
       <c r="S7" t="n">
-        <v>0.5771426952115117</v>
+        <v>0.5771426952115115</v>
       </c>
       <c r="T7" t="n">
-        <v>0.5811082820741397</v>
+        <v>0.5811082820740036</v>
       </c>
       <c r="U7" t="n">
-        <v>0.5763053706436114</v>
+        <v>0.5763053706437079</v>
       </c>
       <c r="V7" t="n">
-        <v>0.5788748888815581</v>
+        <v>0.5788748888815516</v>
       </c>
       <c r="W7" t="n">
-        <v>0.5797529490490627</v>
+        <v>0.579752949049073</v>
       </c>
       <c r="X7" t="n">
-        <v>0.5740957429699692</v>
+        <v>0.5740957429699696</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.7338511315134828</v>
+        <v>0.7338511315134078</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.5472512328057565</v>
+        <v>0.5472512328078796</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.5993385088098794</v>
+        <v>0.5993385088098599</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.5720034484879988</v>
+        <v>0.5720034484879984</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.5848225801390126</v>
+        <v>0.5848225801389405</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.5769934918722234</v>
+        <v>0.5769934918722227</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.6317335692105781</v>
+        <v>0.6317335692105801</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.5794865233649013</v>
+        <v>0.579486523364901</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.5767787530899734</v>
+        <v>0.5767787530906889</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.6508329011526669</v>
+        <v>0.6508329011527367</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.6453221344257986</v>
+        <v>0.6453221344257958</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.581041807022536</v>
+        <v>0.5810418070225331</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.591032433371419</v>
+        <v>0.5910324333713927</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.5715980575263736</v>
+        <v>0.5715980575263847</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.655695038185639</v>
+        <v>0.6556950381856279</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.5620521040420071</v>
+        <v>0.5620521040420051</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.5787769590835683</v>
+        <v>0.5787769590835452</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.6186273485728566</v>
+        <v>0.6186273485728556</v>
       </c>
     </row>
     <row r="8" spans="1:42">
@@ -4125,124 +4125,124 @@
         <v>18</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7599441099620102</v>
+        <v>0.7599441099628035</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5843379686796144</v>
+        <v>0.5843379686947219</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5723580378160145</v>
+        <v>0.5723580378160147</v>
       </c>
       <c r="F8" t="n">
-        <v>0.6754661382980415</v>
+        <v>0.6754661382983267</v>
       </c>
       <c r="G8" t="n">
-        <v>0.7314066608366308</v>
+        <v>0.7314066608362549</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6709651975983298</v>
+        <v>0.6709651976002122</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6149286946926368</v>
+        <v>0.6149286946929775</v>
       </c>
       <c r="J8" t="n">
-        <v>0.566389563123692</v>
+        <v>0.5663895631233633</v>
       </c>
       <c r="K8" t="n">
-        <v>0.6483037286250817</v>
+        <v>0.6483037286272604</v>
       </c>
       <c r="L8" t="n">
-        <v>0.5740280961368742</v>
+        <v>0.5740280961372285</v>
       </c>
       <c r="M8" t="n">
-        <v>0.5815907839947296</v>
+        <v>0.5815907839947957</v>
       </c>
       <c r="N8" t="n">
-        <v>0.6656336983278007</v>
+        <v>0.6656336983251434</v>
       </c>
       <c r="O8" t="n">
-        <v>0.6804856810861313</v>
+        <v>0.6804856810847173</v>
       </c>
       <c r="P8" t="n">
-        <v>0.6795207622765188</v>
+        <v>0.6795207622765135</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.5852080768599132</v>
+        <v>0.5852080768598668</v>
       </c>
       <c r="R8" t="n">
-        <v>0.6531173634495488</v>
+        <v>0.6531173634495173</v>
       </c>
       <c r="S8" t="n">
-        <v>0.6946301780578874</v>
+        <v>0.6946301780578681</v>
       </c>
       <c r="T8" t="n">
-        <v>0.5705441065452929</v>
+        <v>0.5705441065452935</v>
       </c>
       <c r="U8" t="n">
         <v>0.5736415870678555</v>
       </c>
       <c r="V8" t="n">
-        <v>0.6607711415095662</v>
+        <v>0.6607711415083308</v>
       </c>
       <c r="W8" t="n">
-        <v>0.6944442374286702</v>
+        <v>0.6944442374289425</v>
       </c>
       <c r="X8" t="n">
-        <v>0.579570669693292</v>
+        <v>0.5795706696932961</v>
       </c>
       <c r="Y8" t="n">
         <v>0.5639687854052864</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.5758197083307833</v>
+        <v>0.5758197083307827</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.5679239392764115</v>
+        <v>0.5679239392764116</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.5815255269874529</v>
+        <v>0.5815255269874569</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.5656955043679145</v>
+        <v>0.5656955043679137</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.6064826854415101</v>
+        <v>0.6064826854415207</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.5651096838953353</v>
+        <v>0.5651096838953354</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.5739204284805772</v>
+        <v>0.5739204284805791</v>
       </c>
       <c r="AG8" t="n">
         <v>0.5687448852225826</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.5833338242394178</v>
+        <v>0.5833338242394313</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.6117026879106455</v>
+        <v>0.6117026879107191</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.5785472479337607</v>
+        <v>0.5785472479337646</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.6084599518930556</v>
+        <v>0.6084599518929024</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.6614849468827386</v>
+        <v>0.6614849468827623</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.616910345734658</v>
+        <v>0.6169103457346518</v>
       </c>
       <c r="AN8" t="n">
-        <v>0.6467448349152035</v>
+        <v>0.6467448349153671</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.5614513898489877</v>
+        <v>0.561451389848987</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.5767119362640846</v>
+        <v>0.5767119362640849</v>
       </c>
     </row>
     <row r="9" spans="1:42">
@@ -4250,124 +4250,124 @@
         <v>19</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6964594674061372</v>
+        <v>0.6964594674080529</v>
       </c>
       <c r="D9" t="n">
-        <v>0.653009752833294</v>
+        <v>0.6530097528390725</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5634068970064502</v>
+        <v>0.5634068970064503</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6186916070494843</v>
+        <v>0.6186916070495839</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6835575159524522</v>
+        <v>0.6835575159544223</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5694002649829057</v>
+        <v>0.5694002649828994</v>
       </c>
       <c r="I9" t="n">
-        <v>0.6773281552028521</v>
+        <v>0.6773281552051358</v>
       </c>
       <c r="J9" t="n">
-        <v>0.573600022083705</v>
+        <v>0.573600022083713</v>
       </c>
       <c r="K9" t="n">
-        <v>0.5925162447778105</v>
+        <v>0.5925162447768589</v>
       </c>
       <c r="L9" t="n">
-        <v>0.5880813299534742</v>
+        <v>0.5880813299516457</v>
       </c>
       <c r="M9" t="n">
-        <v>0.5924363942339926</v>
+        <v>0.5924363942335825</v>
       </c>
       <c r="N9" t="n">
-        <v>0.5758202219566706</v>
+        <v>0.5758202219566713</v>
       </c>
       <c r="O9" t="n">
-        <v>0.6000429122632573</v>
+        <v>0.6000429122662114</v>
       </c>
       <c r="P9" t="n">
-        <v>0.6095248360467014</v>
+        <v>0.6095248360504676</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.6257895817679016</v>
+        <v>0.6257895817744261</v>
       </c>
       <c r="R9" t="n">
-        <v>0.562285924019209</v>
+        <v>0.5622859240192313</v>
       </c>
       <c r="S9" t="n">
-        <v>0.7254921885538578</v>
+        <v>0.7254921885553322</v>
       </c>
       <c r="T9" t="n">
-        <v>0.5672858535249453</v>
+        <v>0.5672858535251485</v>
       </c>
       <c r="U9" t="n">
-        <v>0.6594150455800329</v>
+        <v>0.6594150455801726</v>
       </c>
       <c r="V9" t="n">
-        <v>0.5725052278295573</v>
+        <v>0.5725052278294794</v>
       </c>
       <c r="W9" t="n">
-        <v>0.6351670646733177</v>
+        <v>0.6351670646734517</v>
       </c>
       <c r="X9" t="n">
         <v>0.5703253972557253</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.7347237262804772</v>
+        <v>0.7347237262802727</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.6229007083442791</v>
+        <v>0.6229007083447635</v>
       </c>
       <c r="AA9" t="n">
         <v>0.5803912614207982</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.5711742125166807</v>
+        <v>0.5711742125166784</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.5629511755651753</v>
+        <v>0.5629511755651719</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.5748346442704899</v>
+        <v>0.5748346442705137</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.5727513265242217</v>
+        <v>0.572751326524217</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.6461157390820303</v>
+        <v>0.6461157390813916</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.7387005697255512</v>
+        <v>0.7387005697250314</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.5810332214555965</v>
+        <v>0.5810332214555964</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.5773433914795997</v>
+        <v>0.5773433914796523</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.6645129454708647</v>
+        <v>0.6645129454704778</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.6728271983745142</v>
+        <v>0.6728271983734682</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.5924715055445183</v>
+        <v>0.5924715055446036</v>
       </c>
       <c r="AM9" t="n">
-        <v>0.5701880075361868</v>
+        <v>0.5701880075364192</v>
       </c>
       <c r="AN9" t="n">
-        <v>0.6259378696332041</v>
+        <v>0.6259378696334497</v>
       </c>
       <c r="AO9" t="n">
-        <v>0.5710037303438391</v>
+        <v>0.5710037303439797</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.7237444597605761</v>
+        <v>0.7237444597605677</v>
       </c>
     </row>
     <row r="10" spans="1:42">
@@ -4375,124 +4375,124 @@
         <v>20</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6988153920694397</v>
+        <v>0.6988153920695666</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7345497007527453</v>
+        <v>0.7345497007530948</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5803243705636161</v>
+        <v>0.5803243705636165</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5831352610900009</v>
+        <v>0.5831352610899853</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5670660063920415</v>
+        <v>0.567066006392041</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6153070938634622</v>
+        <v>0.6153070938634357</v>
       </c>
       <c r="I10" t="n">
-        <v>0.5747237108502703</v>
+        <v>0.5747237108502689</v>
       </c>
       <c r="J10" t="n">
-        <v>0.5685243778123547</v>
+        <v>0.5685243778123551</v>
       </c>
       <c r="K10" t="n">
-        <v>0.5710434908574922</v>
+        <v>0.571043490857492</v>
       </c>
       <c r="L10" t="n">
-        <v>0.5784450396284331</v>
+        <v>0.5784450396284522</v>
       </c>
       <c r="M10" t="n">
-        <v>0.5762354376458536</v>
+        <v>0.5762354376458523</v>
       </c>
       <c r="N10" t="n">
-        <v>0.5756296090882282</v>
+        <v>0.5756296090879518</v>
       </c>
       <c r="O10" t="n">
-        <v>0.6794273020690603</v>
+        <v>0.6794273020688603</v>
       </c>
       <c r="P10" t="n">
-        <v>0.5790978689448859</v>
+        <v>0.5790978689448834</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.5801832701367564</v>
+        <v>0.5801832701352894</v>
       </c>
       <c r="R10" t="n">
-        <v>0.7002564064274353</v>
+        <v>0.700256406427133</v>
       </c>
       <c r="S10" t="n">
-        <v>0.6218925485815237</v>
+        <v>0.6218925485827118</v>
       </c>
       <c r="T10" t="n">
-        <v>0.6312108551427458</v>
+        <v>0.6312108551426339</v>
       </c>
       <c r="U10" t="n">
-        <v>0.6168364420653113</v>
+        <v>0.6168364420645803</v>
       </c>
       <c r="V10" t="n">
-        <v>0.5695464880034513</v>
+        <v>0.5695464880034303</v>
       </c>
       <c r="W10" t="n">
-        <v>0.5868161296188561</v>
+        <v>0.586816129618881</v>
       </c>
       <c r="X10" t="n">
-        <v>0.598696037185882</v>
+        <v>0.5986960371857732</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.583281224149181</v>
+        <v>0.5832812241492533</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.6214636187998317</v>
+        <v>0.6214636188011211</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.5829918781866252</v>
+        <v>0.5829918781865258</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.6891579317187517</v>
+        <v>0.6891579317186852</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.57677188635301</v>
+        <v>0.5767718863530048</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.5727521183927918</v>
+        <v>0.5727521183925633</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.6633401672840622</v>
+        <v>0.6633401672867685</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.5762969250590243</v>
+        <v>0.5762969250590306</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.567289181191439</v>
+        <v>0.5672891811914069</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.5800790246351564</v>
+        <v>0.5800790246351554</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.585876384996048</v>
+        <v>0.5858763849956335</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.5810603927439649</v>
+        <v>0.5810603927440726</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.5706104041998437</v>
+        <v>0.5706104041998868</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.5754798908265865</v>
+        <v>0.5754798908266193</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.5561128386020296</v>
+        <v>0.5561128386020364</v>
       </c>
       <c r="AN10" t="n">
-        <v>0.7897102012892409</v>
+        <v>0.7897102012892151</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.681717523214229</v>
+        <v>0.6817175232143518</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.7384187612798575</v>
+        <v>0.7384187612798023</v>
       </c>
     </row>
     <row r="11" spans="1:42">
@@ -4500,124 +4500,124 @@
         <v>21</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8031328794864102</v>
+        <v>0.8031328794866089</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6972228354184412</v>
+        <v>0.6972228354195587</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5763770388527719</v>
+        <v>0.5763770388527718</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7263199269491646</v>
+        <v>0.7263199269491991</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5747559977406294</v>
+        <v>0.5747559977406295</v>
       </c>
       <c r="H11" t="n">
-        <v>0.5729075059639991</v>
+        <v>0.5729075059640089</v>
       </c>
       <c r="I11" t="n">
-        <v>0.7131774515387279</v>
+        <v>0.7131774515388565</v>
       </c>
       <c r="J11" t="n">
-        <v>0.6143646820879366</v>
+        <v>0.6143646820882697</v>
       </c>
       <c r="K11" t="n">
-        <v>0.5899527471225553</v>
+        <v>0.5899527471229232</v>
       </c>
       <c r="L11" t="n">
-        <v>0.7624531272665976</v>
+        <v>0.7624531272667068</v>
       </c>
       <c r="M11" t="n">
-        <v>0.6993956288586873</v>
+        <v>0.6993956288586769</v>
       </c>
       <c r="N11" t="n">
-        <v>0.5683432250315673</v>
+        <v>0.5683432250421232</v>
       </c>
       <c r="O11" t="n">
-        <v>0.5994013892350919</v>
+        <v>0.5994013892350518</v>
       </c>
       <c r="P11" t="n">
-        <v>0.5752479760939372</v>
+        <v>0.5752479760939377</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.7252889221398049</v>
+        <v>0.725288922139728</v>
       </c>
       <c r="R11" t="n">
-        <v>0.66523614460094</v>
+        <v>0.6652361446008972</v>
       </c>
       <c r="S11" t="n">
-        <v>0.6609562002592474</v>
+        <v>0.6609562002592578</v>
       </c>
       <c r="T11" t="n">
-        <v>0.636929708109325</v>
+        <v>0.6369297081081328</v>
       </c>
       <c r="U11" t="n">
-        <v>0.5937211343960728</v>
+        <v>0.5937211343961453</v>
       </c>
       <c r="V11" t="n">
-        <v>0.5713368356299753</v>
+        <v>0.5713368356300284</v>
       </c>
       <c r="W11" t="n">
-        <v>0.7193518566566683</v>
+        <v>0.7193518566567968</v>
       </c>
       <c r="X11" t="n">
-        <v>0.5682209574245813</v>
+        <v>0.5682209574245822</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.5670105049928739</v>
+        <v>0.5670105049928872</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.6726766992491474</v>
+        <v>0.672676699249049</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.6871215266381179</v>
+        <v>0.6871215266385264</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.7100153944062572</v>
+        <v>0.7100153944063787</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.6053359250699443</v>
+        <v>0.6053359250697442</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.6618701921203519</v>
+        <v>0.6618701921203705</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.6796917352884942</v>
+        <v>0.6796917352883182</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.7359203915564987</v>
+        <v>0.7359203915558135</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.5815198216251415</v>
+        <v>0.5815198216251465</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.6932077824244616</v>
+        <v>0.6932077824243555</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.6480083261578871</v>
+        <v>0.6480083261588866</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.6430930921172523</v>
+        <v>0.6430930921172715</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.6768344824020124</v>
+        <v>0.6768344824022221</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.5858229495120264</v>
+        <v>0.5858229495119175</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.5603342453681366</v>
+        <v>0.5603342453681387</v>
       </c>
       <c r="AN11" t="n">
         <v>0.5820589093138817</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.6420881148530888</v>
+        <v>0.6420881148530742</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.5779868579103991</v>
+        <v>0.5779868579103989</v>
       </c>
     </row>
   </sheetData>
